--- a/Data/Asplund_2008.xlsx
+++ b/Data/Asplund_2008.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="92">
   <si>
     <t>Z</t>
   </si>
@@ -308,7 +308,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000000000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2327,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D287"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,24 +2361,24 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>1.4307999611E-5</v>
+        <v>0.71538567254999996</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
       <c r="D3" s="2">
-        <v>4.4869800150000003E-5</v>
+        <v>1.4307999611E-5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2389,24 +2389,24 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0.27025513110999999</v>
+        <v>4.4869800150000003E-5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>6.4407632918000004E-10</v>
+        <v>0.27025513110999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,38 +2417,38 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>9.1487407785000008E-9</v>
+        <v>6.4407632918000004E-10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>1.6779801602000001E-10</v>
+        <v>9.1487407785000008E-9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>7.7517077092000004E-10</v>
+        <v>1.6779801602000001E-10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2459,24 +2459,24 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>3.4321757097999999E-9</v>
+        <v>7.7517077092000004E-10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>2.4825306734E-3</v>
+        <v>3.4321757097999999E-9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2487,24 +2487,24 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>3.0083012114999999E-5</v>
+        <v>2.4825306734E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>7.3396723494000005E-4</v>
+        <v>3.0083012114999999E-5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,24 +2515,24 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>1.8049744286000001E-6</v>
+        <v>7.3396723494000005E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
-        <v>6.0761694571000004E-3</v>
+        <v>1.8049744286000001E-6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2543,10 +2543,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
-        <v>2.4526323005E-6</v>
+        <v>6.0761694571000004E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2557,38 +2557,38 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2">
-        <v>1.3703983054E-5</v>
+        <v>2.4526323005E-6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>5.3616432418999999E-7</v>
+        <v>1.3703983054E-5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
-        <v>1.2296781652000001E-3</v>
+        <v>5.3616432418999999E-7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,10 +2599,10 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
-        <v>3.0951292776999999E-6</v>
+        <v>1.2296781652000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,38 +2613,38 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2">
-        <v>9.9459969635000002E-5</v>
+        <v>3.0951292776999999E-6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2">
-        <v>3.1065056525000001E-5</v>
+        <v>9.9459969635000002E-5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
-        <v>5.8658056252000005E-4</v>
+        <v>3.1065056525000001E-5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,10 +2655,10 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
-        <v>7.7354275135000007E-5</v>
+        <v>5.8658056252000005E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,38 +2669,38 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
-        <v>8.8573739201000006E-5</v>
+        <v>7.7354275135000007E-5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2">
-        <v>5.9143643625000003E-5</v>
+        <v>8.8573739201000006E-5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
-        <v>6.4949100307999999E-4</v>
+        <v>5.9143643625000003E-5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2711,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
-        <v>3.4157416484000003E-5</v>
+        <v>6.4949100307999999E-4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,38 +2725,38 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
-        <v>2.3293263116999998E-5</v>
+        <v>3.4157416484000003E-5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
-        <v>6.1930702445000003E-6</v>
+        <v>2.3293263116999998E-5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
-        <v>3.1124169468999999E-4</v>
+        <v>6.1930702445000003E-6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2767,10 +2767,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
-        <v>2.5696373982E-6</v>
+        <v>3.1124169468999999E-4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2781,10 +2781,10 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
-        <v>1.4944470132E-5</v>
+        <v>2.5696373982E-6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2795,24 +2795,24 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
-        <v>7.3769494686000002E-8</v>
+        <v>1.4944470132E-5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
         <v>36</v>
       </c>
-      <c r="C34">
-        <v>35</v>
-      </c>
       <c r="D34" s="2">
-        <v>6.5187895016000001E-6</v>
+        <v>7.3769494686000002E-8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2823,24 +2823,24 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
-        <v>2.2025215941000001E-6</v>
+        <v>6.5187895016000001E-6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2">
-        <v>5.9455146581000002E-5</v>
+        <v>2.2025215941000001E-6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,10 +2851,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
-        <v>1.141055671E-5</v>
+        <v>5.9455146581000002E-5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,24 +2865,24 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2">
-        <v>1.9210532821999999E-8</v>
+        <v>1.141055671E-5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
         <v>40</v>
       </c>
-      <c r="C39">
-        <v>39</v>
-      </c>
       <c r="D39" s="2">
-        <v>3.0248778981999998E-6</v>
+        <v>1.9210532821999999E-8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2893,10 +2893,10 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2">
-        <v>4.8969045428E-9</v>
+        <v>3.0248778981999998E-6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2907,24 +2907,24 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
-        <v>2.294891008E-7</v>
+        <v>4.8969045428E-9</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2">
-        <v>6.5934360588000007E-5</v>
+        <v>2.294891008E-7</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2935,10 +2935,10 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2">
-        <v>4.6205947809000001E-7</v>
+        <v>6.5934360588000007E-5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2949,10 +2949,10 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2">
-        <v>9.8706678086000005E-8</v>
+        <v>4.6205947809000001E-7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2963,10 +2963,10 @@
         <v>42</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2">
-        <v>1.5606707564999999E-6</v>
+        <v>9.8706678086000005E-8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,10 +2977,10 @@
         <v>42</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2">
-        <v>3.1286871261999998E-9</v>
+        <v>1.5606707564999999E-6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2991,38 +2991,38 @@
         <v>42</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2">
-        <v>1.5262551980999999E-7</v>
+        <v>3.1286871261999998E-9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D48" s="2">
-        <v>4.9403398557999997E-8</v>
+        <v>1.5262551980999999E-7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2">
-        <v>2.6287912006999999E-7</v>
+        <v>4.9403398557999997E-8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3033,10 +3033,10 @@
         <v>46</v>
       </c>
       <c r="C50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2">
-        <v>2.4222284771000002E-7</v>
+        <v>2.6287912006999999E-7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3047,10 +3047,10 @@
         <v>46</v>
       </c>
       <c r="C51">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2">
-        <v>2.4511555708000001E-6</v>
+        <v>2.4222284771000002E-7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3061,10 +3061,10 @@
         <v>46</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2">
-        <v>1.8362747282999999E-7</v>
+        <v>2.4511555708000001E-6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3075,24 +3075,24 @@
         <v>46</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2">
-        <v>1.7940893834000001E-7</v>
+        <v>1.8362747282999999E-7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54">
         <v>50</v>
       </c>
       <c r="D54" s="2">
-        <v>8.2690253850000004E-10</v>
+        <v>1.7940893834000001E-7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3103,24 +3103,24 @@
         <v>48</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="2">
-        <v>3.3653279511999999E-7</v>
+        <v>8.2690253850000004E-10</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" s="2">
-        <v>7.3706212899999995E-7</v>
+        <v>3.3653279511999999E-7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,10 +3131,10 @@
         <v>50</v>
       </c>
       <c r="C57">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D57" s="2">
-        <v>1.4782049868E-5</v>
+        <v>7.3706212899999995E-7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3145,10 +3145,10 @@
         <v>50</v>
       </c>
       <c r="C58">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" s="2">
-        <v>1.7083997526E-6</v>
+        <v>1.4782049868E-5</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3159,38 +3159,38 @@
         <v>50</v>
       </c>
       <c r="C59">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="2">
-        <v>4.3328057305000002E-7</v>
+        <v>1.7083997526E-6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D60" s="2">
-        <v>1.1505539868E-5</v>
+        <v>4.3328057305000002E-7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" s="2">
-        <v>7.7575143475000003E-5</v>
+        <v>1.1505539868E-5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3201,10 +3201,10 @@
         <v>54</v>
       </c>
       <c r="C62">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" s="2">
-        <v>1.2628662167999999E-3</v>
+        <v>7.7575143475000003E-5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3215,10 +3215,10 @@
         <v>54</v>
       </c>
       <c r="C63">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D63" s="2">
-        <v>2.9685893465000001E-5</v>
+        <v>1.2628662167999999E-3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3229,38 +3229,38 @@
         <v>54</v>
       </c>
       <c r="C64">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" s="2">
-        <v>4.0199570594000001E-6</v>
+        <v>2.9685893465000001E-5</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C65">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="2">
-        <v>4.4812206005999998E-6</v>
+        <v>4.0199570594000001E-6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C66">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D66" s="2">
-        <v>5.0929812451999997E-5</v>
+        <v>4.4812206005999998E-6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3271,10 +3271,10 @@
         <v>58</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D67" s="2">
-        <v>2.0294557837000001E-5</v>
+        <v>5.0929812451999997E-5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,10 +3285,10 @@
         <v>58</v>
       </c>
       <c r="C68">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" s="2">
-        <v>8.9689355006000005E-7</v>
+        <v>2.0294557837000001E-5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3299,10 +3299,10 @@
         <v>58</v>
       </c>
       <c r="C69">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D69" s="2">
-        <v>2.9065692514999999E-6</v>
+        <v>8.9689355006000005E-7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,24 +3313,24 @@
         <v>58</v>
       </c>
       <c r="C70">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D70" s="2">
-        <v>7.6409548256999996E-7</v>
+        <v>2.9065692514999999E-6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C71">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D71" s="2">
-        <v>5.2456901860999996E-7</v>
+        <v>7.6409548256999996E-7</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3341,24 +3341,24 @@
         <v>60</v>
       </c>
       <c r="C72">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D72" s="2">
-        <v>2.4122993150999998E-7</v>
+        <v>5.2456901860999996E-7</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C73">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D73" s="2">
-        <v>8.7827102604000002E-7</v>
+        <v>2.4122993150999998E-7</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3369,10 +3369,10 @@
         <v>62</v>
       </c>
       <c r="C74">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D74" s="2">
-        <v>5.1962788767E-7</v>
+        <v>8.7827102604000002E-7</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3383,10 +3383,10 @@
         <v>62</v>
       </c>
       <c r="C75">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="2">
-        <v>7.7518073608000005E-8</v>
+        <v>5.1962788767E-7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3397,10 +3397,10 @@
         <v>62</v>
       </c>
       <c r="C76">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" s="2">
-        <v>3.5979448070999998E-7</v>
+        <v>7.7518073608000005E-8</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3411,24 +3411,24 @@
         <v>62</v>
       </c>
       <c r="C77">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D77" s="2">
-        <v>1.2247121931999999E-8</v>
+        <v>3.5979448070999998E-7</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C78">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D78" s="2">
-        <v>3.5344812378999998E-8</v>
+        <v>1.2247121931999999E-8</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3439,24 +3439,24 @@
         <v>64</v>
       </c>
       <c r="C79">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D79" s="2">
-        <v>2.4137287938E-8</v>
+        <v>3.5344812378999998E-8</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C80">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D80" s="2">
-        <v>5.0645407140999998E-8</v>
+        <v>2.4137287938E-8</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,10 +3467,10 @@
         <v>66</v>
       </c>
       <c r="C81">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D81" s="2">
-        <v>6.8839981431999995E-8</v>
+        <v>5.0645407140999998E-8</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3481,10 +3481,10 @@
         <v>66</v>
       </c>
       <c r="C82">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82" s="2">
-        <v>1.9590551683E-8</v>
+        <v>6.8839981431999995E-8</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3495,10 +3495,10 @@
         <v>66</v>
       </c>
       <c r="C83">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" s="2">
-        <v>9.3205879806000003E-8</v>
+        <v>1.9590551683E-8</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,38 +3509,38 @@
         <v>66</v>
       </c>
       <c r="C84">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D84" s="2">
-        <v>2.0079022260999999E-8</v>
+        <v>9.3205879806000003E-8</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C85">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D85" s="2">
-        <v>1.1630692549E-8</v>
+        <v>2.0079022260999999E-8</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C86">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D86" s="2">
-        <v>1.1198659464000001E-9</v>
+        <v>1.1630692549E-8</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3551,10 +3551,10 @@
         <v>70</v>
       </c>
       <c r="C87">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D87" s="2">
-        <v>1.2108699328E-8</v>
+        <v>1.1198659464000001E-9</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3565,10 +3565,10 @@
         <v>70</v>
       </c>
       <c r="C88">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="2">
-        <v>9.9898639866000001E-9</v>
+        <v>1.2108699328E-8</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3579,10 +3579,10 @@
         <v>70</v>
       </c>
       <c r="C89">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D89" s="2">
-        <v>3.1525943768000001E-8</v>
+        <v>9.9898639866000001E-9</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3593,10 +3593,10 @@
         <v>70</v>
       </c>
       <c r="C90">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D90" s="2">
-        <v>6.7484421014000001E-8</v>
+        <v>3.1525943768000001E-8</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3607,24 +3607,24 @@
         <v>70</v>
       </c>
       <c r="C91">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D91" s="2">
-        <v>1.2172293295E-8</v>
+        <v>6.7484421014000001E-8</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C92">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D92" s="2">
-        <v>1.0791795193E-8</v>
+        <v>1.2172293295E-8</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,24 +3635,24 @@
         <v>72</v>
       </c>
       <c r="C93">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D93" s="2">
-        <v>1.0763768126000001E-8</v>
+        <v>1.0791795193E-8</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C94">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D94" s="2">
-        <v>3.9025410982999999E-10</v>
+        <v>1.0763768126000001E-8</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3663,10 +3663,10 @@
         <v>74</v>
       </c>
       <c r="C95">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D95" s="2">
-        <v>2.5718403724999998E-9</v>
+        <v>3.9025410982999999E-10</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3677,10 +3677,10 @@
         <v>74</v>
       </c>
       <c r="C96">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D96" s="2">
-        <v>1.3209015275000001E-8</v>
+        <v>2.5718403724999998E-9</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3691,10 +3691,10 @@
         <v>74</v>
       </c>
       <c r="C97">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D97" s="2">
-        <v>1.3245060845E-8</v>
+        <v>1.3209015275000001E-8</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,10 +3705,10 @@
         <v>74</v>
       </c>
       <c r="C98">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D98" s="2">
-        <v>6.6063071518000001E-8</v>
+        <v>1.3245060845E-8</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3719,24 +3719,24 @@
         <v>74</v>
       </c>
       <c r="C99">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D99" s="2">
-        <v>2.0453760238000001E-8</v>
+        <v>6.6063071518000001E-8</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C100">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D100" s="2">
-        <v>1.5497666547999999E-8</v>
+        <v>2.0453760238000001E-8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3747,24 +3747,24 @@
         <v>76</v>
       </c>
       <c r="C101">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D101" s="2">
-        <v>6.5281707664000001E-9</v>
+        <v>1.5497666547999999E-8</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C102">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D102" s="2">
-        <v>2.7005846645999997E-10</v>
+        <v>6.5281707664000001E-9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3775,10 +3775,10 @@
         <v>78</v>
       </c>
       <c r="C103">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D103" s="2">
-        <v>4.8894848190000002E-9</v>
+        <v>2.7005846645999997E-10</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3789,10 +3789,10 @@
         <v>78</v>
       </c>
       <c r="C104">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D104" s="2">
-        <v>3.4567431852000001E-9</v>
+        <v>4.8894848190000002E-9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3803,38 +3803,38 @@
         <v>78</v>
       </c>
       <c r="C105">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D105" s="2">
-        <v>4.1919633017999999E-8</v>
+        <v>3.4567431852000001E-9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C106">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D106" s="2">
-        <v>1.1218487769E-8</v>
+        <v>4.1919633017999999E-8</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C107">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D107" s="2">
-        <v>1.3682712469000001E-8</v>
+        <v>1.1218487769E-8</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3845,10 +3845,10 @@
         <v>82</v>
       </c>
       <c r="C108">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D108" s="2">
-        <v>3.017022586E-9</v>
+        <v>1.3682712469000001E-8</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,10 +3859,10 @@
         <v>82</v>
       </c>
       <c r="C109">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D109" s="2">
-        <v>4.6622575819000003E-9</v>
+        <v>3.017022586E-9</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3873,10 +3873,10 @@
         <v>82</v>
       </c>
       <c r="C110">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D110" s="2">
-        <v>4.8274961698E-9</v>
+        <v>4.6622575819000003E-9</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,38 +3887,38 @@
         <v>82</v>
       </c>
       <c r="C111">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D111" s="2">
-        <v>7.9427990747000004E-10</v>
+        <v>4.8274961698E-9</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C112">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D112" s="2">
-        <v>2.0846217309E-9</v>
+        <v>7.9427990747000004E-10</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C113">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D113" s="2">
-        <v>7.8785860104999999E-10</v>
+        <v>2.0846217309E-9</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,10 +3929,10 @@
         <v>86</v>
       </c>
       <c r="C114">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D114" s="2">
-        <v>5.0715501120000005E-10</v>
+        <v>7.8785860104999999E-10</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,10 +3943,10 @@
         <v>86</v>
       </c>
       <c r="C115">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D115" s="2">
-        <v>8.8709116943999999E-10</v>
+        <v>5.0715501120000005E-10</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,10 +3957,10 @@
         <v>86</v>
       </c>
       <c r="C116">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D116" s="2">
-        <v>9.4363327493000003E-10</v>
+        <v>8.8709116943999999E-10</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3971,10 +3971,10 @@
         <v>86</v>
       </c>
       <c r="C117">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D117" s="2">
-        <v>5.4896169049999999E-10</v>
+        <v>9.4363327493000003E-10</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3985,10 +3985,10 @@
         <v>86</v>
       </c>
       <c r="C118">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D118" s="2">
-        <v>1.4092887790999999E-9</v>
+        <v>5.4896169049999999E-10</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3999,24 +3999,24 @@
         <v>86</v>
       </c>
       <c r="C119">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D119" s="2">
-        <v>5.7920548505000002E-10</v>
+        <v>1.4092887790999999E-9</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C120">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D120" s="2">
-        <v>2.3244773028999999E-10</v>
+        <v>5.7920548505000002E-10</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4027,10 +4027,10 @@
         <v>5</v>
       </c>
       <c r="C121">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D121" s="2">
-        <v>8.0096215128000002E-11</v>
+        <v>2.3244773028999999E-10</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4041,10 +4041,10 @@
         <v>5</v>
       </c>
       <c r="C122">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D122" s="2">
-        <v>5.5211580704000004E-10</v>
+        <v>8.0096215128000002E-11</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4055,10 +4055,10 @@
         <v>5</v>
       </c>
       <c r="C123">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D123" s="2">
-        <v>5.5069972204000003E-10</v>
+        <v>5.5211580704000004E-10</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4069,10 +4069,10 @@
         <v>5</v>
       </c>
       <c r="C124">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D124" s="2">
-        <v>7.5308624052999998E-10</v>
+        <v>5.5069972204000003E-10</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,10 +4083,10 @@
         <v>5</v>
       </c>
       <c r="C125">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D125" s="2">
-        <v>1.4065133139E-9</v>
+        <v>7.5308624052999998E-10</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4097,38 +4097,38 @@
         <v>5</v>
       </c>
       <c r="C126">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D126" s="2">
-        <v>8.4636428392000003E-10</v>
+        <v>1.4065133139E-9</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D127" s="2">
-        <v>6.5070109395000004E-10</v>
+        <v>8.4636428392000003E-10</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C128">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D128" s="2">
-        <v>3.0043093935000002E-11</v>
+        <v>6.5070109395000004E-10</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,10 +4139,10 @@
         <v>9</v>
       </c>
       <c r="C129">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D129" s="2">
-        <v>3.3455139281999999E-10</v>
+        <v>3.0043093935000002E-11</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4153,10 +4153,10 @@
         <v>9</v>
       </c>
       <c r="C130">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D130" s="2">
-        <v>6.7705248168000004E-10</v>
+        <v>3.3455139281999999E-10</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,10 +4167,10 @@
         <v>9</v>
       </c>
       <c r="C131">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D131" s="2">
-        <v>8.3654596565999995E-10</v>
+        <v>6.7705248168000004E-10</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4181,10 +4181,10 @@
         <v>9</v>
       </c>
       <c r="C132">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D132" s="2">
-        <v>8.2519750746000004E-10</v>
+        <v>8.3654596565999995E-10</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4195,24 +4195,24 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D133" s="2">
-        <v>3.7227563150000002E-10</v>
+        <v>8.2519750746000004E-10</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C134">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D134" s="2">
-        <v>3.7547818080000001E-10</v>
+        <v>3.7227563150000002E-10</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4223,24 +4223,24 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D135" s="2">
-        <v>3.5535817106000002E-10</v>
+        <v>3.7547818080000001E-10</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C136">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D136" s="2">
-        <v>5.2815353440000003E-11</v>
+        <v>3.5535817106000002E-10</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4251,10 +4251,10 @@
         <v>13</v>
       </c>
       <c r="C137">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D137" s="2">
-        <v>3.8314051115E-11</v>
+        <v>5.2815353440000003E-11</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4265,10 +4265,10 @@
         <v>13</v>
       </c>
       <c r="C138">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D138" s="2">
-        <v>5.4764538937000002E-10</v>
+        <v>3.8314051115E-11</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4279,10 +4279,10 @@
         <v>13</v>
       </c>
       <c r="C139">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D139" s="2">
-        <v>5.6634003146E-10</v>
+        <v>5.4764538937000002E-10</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,10 +4293,10 @@
         <v>13</v>
       </c>
       <c r="C140">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D140" s="2">
-        <v>1.0772578232999999E-9</v>
+        <v>5.6634003146E-10</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,10 +4307,10 @@
         <v>13</v>
       </c>
       <c r="C141">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D141" s="2">
-        <v>5.5041969019999998E-10</v>
+        <v>1.0772578232999999E-9</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,10 +4321,10 @@
         <v>13</v>
       </c>
       <c r="C142">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D142" s="2">
-        <v>1.3055237879E-9</v>
+        <v>5.5041969019999998E-10</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,24 +4335,24 @@
         <v>13</v>
       </c>
       <c r="C143">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D143" s="2">
-        <v>3.4632522025000003E-10</v>
+        <v>1.3055237879E-9</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C144">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D144" s="2">
-        <v>2.3772784189000001E-11</v>
+        <v>3.4632522025000003E-10</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,24 +4363,24 @@
         <v>15</v>
       </c>
       <c r="C145">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D145" s="2">
-        <v>5.3975847328999995E-10</v>
+        <v>2.3772784189000001E-11</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C146">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D146" s="2">
-        <v>9.2583601132000005E-11</v>
+        <v>5.3975847328999995E-10</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4391,10 +4391,10 @@
         <v>17</v>
       </c>
       <c r="C147">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D147" s="2">
-        <v>6.4119938780999995E-11</v>
+        <v>9.2583601132000005E-11</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,10 +4405,10 @@
         <v>17</v>
       </c>
       <c r="C148">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D148" s="2">
-        <v>3.3321233471000003E-11</v>
+        <v>6.4119938780999995E-11</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,10 +4419,10 @@
         <v>17</v>
       </c>
       <c r="C149">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D149" s="2">
-        <v>1.4373638163999999E-9</v>
+        <v>3.3321233471000003E-11</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,10 +4433,10 @@
         <v>17</v>
       </c>
       <c r="C150">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D150" s="2">
-        <v>7.6575773778999996E-10</v>
+        <v>1.4373638163999999E-9</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,10 +4447,10 @@
         <v>17</v>
       </c>
       <c r="C151">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D151" s="2">
-        <v>2.4355691154000001E-9</v>
+        <v>7.6575773778999996E-10</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,10 +4461,10 @@
         <v>17</v>
       </c>
       <c r="C152">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D152" s="2">
-        <v>8.7113294286999995E-10</v>
+        <v>2.4355691154000001E-9</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4475,10 +4475,10 @@
         <v>17</v>
       </c>
       <c r="C153">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D153" s="2">
-        <v>3.3317824649E-9</v>
+        <v>8.7113294286999995E-10</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4489,10 +4489,10 @@
         <v>17</v>
       </c>
       <c r="C154">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D154" s="2">
-        <v>4.8137677592000005E-10</v>
+        <v>3.3317824649E-9</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,24 +4503,24 @@
         <v>17</v>
       </c>
       <c r="C155">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D155" s="2">
-        <v>6.1184943177999999E-10</v>
+        <v>4.8137677592000005E-10</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D156" s="2">
-        <v>5.5055616513999999E-10</v>
+        <v>6.1184943177999999E-10</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4531,24 +4531,24 @@
         <v>19</v>
       </c>
       <c r="C157">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D157" s="2">
-        <v>4.1859275768000001E-10</v>
+        <v>5.5055616513999999E-10</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D158" s="2">
-        <v>1.2704806872000001E-11</v>
+        <v>4.1859275768000001E-10</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,10 +4559,10 @@
         <v>21</v>
       </c>
       <c r="C159">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D159" s="2">
-        <v>3.6596902016999999E-10</v>
+        <v>1.2704806872000001E-11</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4573,10 +4573,10 @@
         <v>21</v>
       </c>
       <c r="C160">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D160" s="2">
-        <v>1.287773341E-10</v>
+        <v>3.6596902016999999E-10</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,10 +4587,10 @@
         <v>21</v>
       </c>
       <c r="C161">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D161" s="2">
-        <v>6.9142382286999995E-10</v>
+        <v>1.287773341E-10</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4601,10 +4601,10 @@
         <v>21</v>
       </c>
       <c r="C162">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D162" s="2">
-        <v>1.0396178770999999E-9</v>
+        <v>6.9142382286999995E-10</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4615,10 +4615,10 @@
         <v>21</v>
       </c>
       <c r="C163">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D163" s="2">
-        <v>2.7925165504000001E-9</v>
+        <v>1.0396178770999999E-9</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,10 +4629,10 @@
         <v>21</v>
       </c>
       <c r="C164">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D164" s="2">
-        <v>4.7792660162000003E-9</v>
+        <v>2.7925165504000001E-9</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,38 +4643,38 @@
         <v>21</v>
       </c>
       <c r="C165">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D165" s="2">
-        <v>5.2117941079000003E-9</v>
+        <v>4.7792660162000003E-9</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C166">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D166" s="2">
-        <v>3.5022571704E-9</v>
+        <v>5.2117941079000003E-9</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C167">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D167" s="2">
-        <v>2.0432703265999999E-11</v>
+        <v>3.5022571704E-9</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,10 +4685,10 @@
         <v>25</v>
       </c>
       <c r="C168">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D168" s="2">
-        <v>1.8379708226000001E-11</v>
+        <v>2.0432703265999999E-11</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,10 +4699,10 @@
         <v>25</v>
       </c>
       <c r="C169">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D169" s="2">
-        <v>3.7826973872E-10</v>
+        <v>1.8379708226000001E-11</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4713,10 +4713,10 @@
         <v>25</v>
       </c>
       <c r="C170">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D170" s="2">
-        <v>4.7487598657000001E-9</v>
+        <v>3.7826973872E-10</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4727,10 +4727,10 @@
         <v>25</v>
       </c>
       <c r="C171">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D171" s="2">
-        <v>7.6836040678E-10</v>
+        <v>4.7487598657000001E-9</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,10 +4741,10 @@
         <v>25</v>
       </c>
       <c r="C172">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D172" s="2">
-        <v>3.8382673706999998E-9</v>
+        <v>7.6836040678E-10</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,10 +4755,10 @@
         <v>25</v>
       </c>
       <c r="C173">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D173" s="2">
-        <v>4.7270859108000001E-9</v>
+        <v>3.8382673706999998E-9</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4769,10 +4769,10 @@
         <v>25</v>
       </c>
       <c r="C174">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D174" s="2">
-        <v>1.7718697849E-9</v>
+        <v>4.7270859108000001E-9</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4783,38 +4783,38 @@
         <v>25</v>
       </c>
       <c r="C175">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D175" s="2">
-        <v>1.4610625437E-9</v>
+        <v>1.7718697849E-9</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C176">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D176" s="2">
-        <v>1.2427848577999999E-9</v>
+        <v>1.4610625437E-9</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C177">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D177" s="2">
-        <v>1.6210392471999999E-11</v>
+        <v>1.2427848577999999E-9</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4825,10 +4825,10 @@
         <v>29</v>
       </c>
       <c r="C178">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D178" s="2">
-        <v>1.5683378261000001E-11</v>
+        <v>1.6210392471999999E-11</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,10 +4839,10 @@
         <v>29</v>
       </c>
       <c r="C179">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D179" s="2">
-        <v>3.8100068888999998E-10</v>
+        <v>1.5683378261000001E-11</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,10 +4853,10 @@
         <v>29</v>
       </c>
       <c r="C180">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D180" s="2">
-        <v>1.0468760862000001E-9</v>
+        <v>3.8100068888999998E-10</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4867,10 +4867,10 @@
         <v>29</v>
       </c>
       <c r="C181">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D181" s="2">
-        <v>1.2565336325E-9</v>
+        <v>1.0468760862000001E-9</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4881,10 +4881,10 @@
         <v>29</v>
       </c>
       <c r="C182">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D182" s="2">
-        <v>1.8101808831E-9</v>
+        <v>1.2565336325E-9</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4895,24 +4895,24 @@
         <v>29</v>
       </c>
       <c r="C183">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D183" s="2">
-        <v>1.1639395884000001E-8</v>
+        <v>1.8101808831E-9</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C184">
         <v>138</v>
       </c>
       <c r="D184" s="2">
-        <v>1.2287535649999999E-12</v>
+        <v>1.1639395884000001E-8</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,24 +4923,24 @@
         <v>31</v>
       </c>
       <c r="C185">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D185" s="2">
-        <v>1.3588256131999999E-9</v>
+        <v>1.2287535649999999E-12</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C186">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D186" s="2">
-        <v>7.4345544909999997E-12</v>
+        <v>1.3588256131999999E-9</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4951,10 +4951,10 @@
         <v>33</v>
       </c>
       <c r="C187">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D187" s="2">
-        <v>1.023521854E-11</v>
+        <v>7.4345544909999997E-12</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4965,10 +4965,10 @@
         <v>33</v>
       </c>
       <c r="C188">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D188" s="2">
-        <v>3.6590655111999999E-9</v>
+        <v>1.023521854E-11</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,38 +4979,38 @@
         <v>33</v>
       </c>
       <c r="C189">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D189" s="2">
-        <v>4.6634040870999998E-10</v>
+        <v>3.6590655111999999E-9</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C190">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D190" s="2">
-        <v>5.7512656071999996E-10</v>
+        <v>4.6634040870999998E-10</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C191">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D191" s="2">
-        <v>7.8506132654999997E-10</v>
+        <v>5.7512656071999996E-10</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,10 +5021,10 @@
         <v>37</v>
       </c>
       <c r="C192">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D192" s="2">
-        <v>3.5147399415E-10</v>
+        <v>7.8506132654999997E-10</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5035,10 +5035,10 @@
         <v>37</v>
       </c>
       <c r="C193">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D193" s="2">
-        <v>6.9853189464999996E-10</v>
+        <v>3.5147399415E-10</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,10 +5049,10 @@
         <v>37</v>
       </c>
       <c r="C194">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D194" s="2">
-        <v>2.5975572375999999E-10</v>
+        <v>6.9853189464999996E-10</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,10 +5063,10 @@
         <v>37</v>
       </c>
       <c r="C195">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D195" s="2">
-        <v>5.1127496883000001E-10</v>
+        <v>2.5975572375999999E-10</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5077,10 +5077,10 @@
         <v>37</v>
       </c>
       <c r="C196">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D196" s="2">
-        <v>1.7294111222E-10</v>
+        <v>5.1127496883000001E-10</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,24 +5091,24 @@
         <v>37</v>
       </c>
       <c r="C197">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D197" s="2">
-        <v>1.7159841695E-10</v>
+        <v>1.7294111222E-10</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C198">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D198" s="2">
-        <v>3.1336116974999997E-11</v>
+        <v>1.7159841695E-10</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5119,10 +5119,10 @@
         <v>39</v>
       </c>
       <c r="C199">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D199" s="2">
-        <v>1.5619361618000001E-10</v>
+        <v>3.1336116974999997E-11</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,10 +5133,10 @@
         <v>39</v>
       </c>
       <c r="C200">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D200" s="2">
-        <v>1.1791589149000001E-10</v>
+        <v>1.5619361618000001E-10</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5147,10 +5147,10 @@
         <v>39</v>
       </c>
       <c r="C201">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D201" s="2">
-        <v>1.4596160277000001E-10</v>
+        <v>1.1791589149000001E-10</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,10 +5161,10 @@
         <v>39</v>
       </c>
       <c r="C202">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D202" s="2">
-        <v>7.8467882490999994E-11</v>
+        <v>1.4596160277000001E-10</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,10 +5175,10 @@
         <v>39</v>
       </c>
       <c r="C203">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D203" s="2">
-        <v>2.8821175267000002E-10</v>
+        <v>7.8467882490999994E-11</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,24 +5189,24 @@
         <v>39</v>
       </c>
       <c r="C204">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D204" s="2">
-        <v>2.4833986115999998E-10</v>
+        <v>2.8821175267000002E-10</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C205">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D205" s="2">
-        <v>1.8579755866000001E-10</v>
+        <v>2.4833986115999998E-10</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5217,24 +5217,24 @@
         <v>41</v>
       </c>
       <c r="C206">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D206" s="2">
-        <v>2.0550530614E-10</v>
+        <v>1.8579755866000001E-10</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C207">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D207" s="2">
-        <v>2.7759899901000001E-12</v>
+        <v>2.0550530614E-10</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5245,10 +5245,10 @@
         <v>43</v>
       </c>
       <c r="C208">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D208" s="2">
-        <v>3.0656426298999999E-11</v>
+        <v>2.7759899901000001E-12</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,10 +5259,10 @@
         <v>43</v>
       </c>
       <c r="C209">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D209" s="2">
-        <v>2.0947766569999999E-10</v>
+        <v>3.0656426298999999E-11</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5273,10 +5273,10 @@
         <v>43</v>
       </c>
       <c r="C210">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D210" s="2">
-        <v>2.9159948536999999E-10</v>
+        <v>2.0947766569999999E-10</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5287,10 +5287,10 @@
         <v>43</v>
       </c>
       <c r="C211">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D211" s="2">
-        <v>2.2436665149000001E-10</v>
+        <v>2.9159948536999999E-10</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5301,10 +5301,10 @@
         <v>43</v>
       </c>
       <c r="C212">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D212" s="2">
-        <v>3.5838761296E-10</v>
+        <v>2.2436665149000001E-10</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,38 +5315,38 @@
         <v>43</v>
       </c>
       <c r="C213">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D213" s="2">
-        <v>3.193849536E-10</v>
+        <v>3.5838761296E-10</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C214">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D214" s="2">
-        <v>2.4657068204E-10</v>
+        <v>3.193849536E-10</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C215">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D215" s="2">
-        <v>8.5478508873000003E-13</v>
+        <v>2.4657068204E-10</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5357,10 +5357,10 @@
         <v>47</v>
       </c>
       <c r="C216">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D216" s="2">
-        <v>1.4686726399000001E-12</v>
+        <v>8.5478508873000003E-13</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5371,10 +5371,10 @@
         <v>47</v>
       </c>
       <c r="C217">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D217" s="2">
-        <v>3.6461437209999998E-11</v>
+        <v>1.4686726399000001E-12</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5385,10 +5385,10 @@
         <v>47</v>
       </c>
       <c r="C218">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D218" s="2">
-        <v>2.97563155E-10</v>
+        <v>3.6461437209999998E-11</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5399,10 +5399,10 @@
         <v>47</v>
       </c>
       <c r="C219">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D219" s="2">
-        <v>4.0539180865000002E-10</v>
+        <v>2.97563155E-10</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5413,10 +5413,10 @@
         <v>47</v>
       </c>
       <c r="C220">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D220" s="2">
-        <v>3.9706489465999998E-10</v>
+        <v>4.0539180865000002E-10</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5427,38 +5427,38 @@
         <v>47</v>
       </c>
       <c r="C221">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D221" s="2">
-        <v>4.5348227605999998E-10</v>
+        <v>3.9706489465999998E-10</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C222">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D222" s="2">
-        <v>3.8728284177000001E-10</v>
+        <v>4.5348227605999998E-10</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C223">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D223" s="2">
-        <v>1.4242893768E-12</v>
+        <v>3.8728284177000001E-10</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5469,10 +5469,10 @@
         <v>51</v>
       </c>
       <c r="C224">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D224" s="2">
-        <v>1.6973816083E-11</v>
+        <v>1.4242893768E-12</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5483,10 +5483,10 @@
         <v>51</v>
       </c>
       <c r="C225">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D225" s="2">
-        <v>3.5953079703999999E-10</v>
+        <v>1.6973816083E-11</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5497,10 +5497,10 @@
         <v>51</v>
       </c>
       <c r="C226">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D226" s="2">
-        <v>2.4689253438999998E-10</v>
+        <v>3.5953079703999999E-10</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5511,10 +5511,10 @@
         <v>51</v>
       </c>
       <c r="C227">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D227" s="2">
-        <v>2.9299711508999998E-10</v>
+        <v>2.4689253438999998E-10</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5525,38 +5525,38 @@
         <v>51</v>
       </c>
       <c r="C228">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D228" s="2">
-        <v>1.6385921765999999E-10</v>
+        <v>2.9299711508999998E-10</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C229">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D229" s="2">
-        <v>1.6536021062000001E-10</v>
+        <v>1.6385921765999999E-10</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C230">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D230" s="2">
-        <v>1.0840138722E-12</v>
+        <v>1.6536021062000001E-10</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5567,10 +5567,10 @@
         <v>55</v>
       </c>
       <c r="C231">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D231" s="2">
-        <v>2.7240150181000001E-11</v>
+        <v>1.0840138722E-12</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5581,10 +5581,10 @@
         <v>55</v>
       </c>
       <c r="C232">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D232" s="2">
-        <v>1.2955417576999999E-10</v>
+        <v>2.7240150181000001E-11</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5595,10 +5595,10 @@
         <v>55</v>
       </c>
       <c r="C233">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D233" s="2">
-        <v>2.0060063853000001E-10</v>
+        <v>1.2955417576999999E-10</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5609,10 +5609,10 @@
         <v>55</v>
       </c>
       <c r="C234">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D234" s="2">
-        <v>1.4976705546999999E-10</v>
+        <v>2.0060063853000001E-10</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,10 +5623,10 @@
         <v>55</v>
       </c>
       <c r="C235">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D235" s="2">
-        <v>2.9967498971999999E-10</v>
+        <v>1.4976705546999999E-10</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5637,24 +5637,24 @@
         <v>55</v>
       </c>
       <c r="C236">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D236" s="2">
-        <v>1.2302697120999999E-10</v>
+        <v>2.9967498971999999E-10</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C237">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D237" s="2">
-        <v>1.6640141733000001E-10</v>
+        <v>1.2302697120999999E-10</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5665,24 +5665,24 @@
         <v>57</v>
       </c>
       <c r="C238">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D238" s="2">
-        <v>4.8571675403000001E-12</v>
+        <v>1.6640141733000001E-10</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C239">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D239" s="2">
-        <v>1.5509884903000001E-12</v>
+        <v>4.8571675403000001E-12</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,10 +5693,10 @@
         <v>59</v>
       </c>
       <c r="C240">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D240" s="2">
-        <v>5.0415159294E-11</v>
+        <v>1.5509884903000001E-12</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5707,10 +5707,10 @@
         <v>59</v>
       </c>
       <c r="C241">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D241" s="2">
-        <v>1.8120517446E-10</v>
+        <v>5.0415159294E-11</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5721,10 +5721,10 @@
         <v>59</v>
       </c>
       <c r="C242">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D242" s="2">
-        <v>2.6734941259000002E-10</v>
+        <v>1.8120517446E-10</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5735,10 +5735,10 @@
         <v>59</v>
       </c>
       <c r="C243">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D243" s="2">
-        <v>1.3423362999000001E-10</v>
+        <v>2.6734941259000002E-10</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5749,24 +5749,24 @@
         <v>59</v>
       </c>
       <c r="C244">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D244" s="2">
-        <v>3.4763535127999998E-10</v>
+        <v>1.3423362999000001E-10</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C245">
         <v>180</v>
       </c>
       <c r="D245" s="2">
-        <v>1.273497402E-14</v>
+        <v>3.4763535127999998E-10</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5777,24 +5777,24 @@
         <v>61</v>
       </c>
       <c r="C246">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D246" s="2">
-        <v>1.0670155991E-10</v>
+        <v>1.273497402E-14</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C247">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D247" s="2">
-        <v>1.1884969275E-12</v>
+        <v>1.0670155991E-10</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5805,10 +5805,10 @@
         <v>63</v>
       </c>
       <c r="C248">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D248" s="2">
-        <v>2.6537595745999998E-10</v>
+        <v>1.1884969275E-12</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5819,10 +5819,10 @@
         <v>63</v>
       </c>
       <c r="C249">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D249" s="2">
-        <v>1.4409039624E-10</v>
+        <v>2.6537595745999998E-10</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5833,10 +5833,10 @@
         <v>63</v>
       </c>
       <c r="C250">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D250" s="2">
-        <v>3.1020650174999998E-10</v>
+        <v>1.4409039624E-10</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -5847,24 +5847,24 @@
         <v>63</v>
       </c>
       <c r="C251">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D251" s="2">
-        <v>2.9096055474000001E-10</v>
+        <v>3.1020650174999998E-10</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C252">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D252" s="2">
-        <v>9.3308613513999996E-11</v>
+        <v>2.9096055474000001E-10</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -5875,24 +5875,24 @@
         <v>65</v>
       </c>
       <c r="C253">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D253" s="2">
-        <v>1.7015843205999999E-10</v>
+        <v>9.3308613513999996E-11</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C254">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D254" s="2">
-        <v>7.1844269091000003E-13</v>
+        <v>1.7015843205999999E-10</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -5903,10 +5903,10 @@
         <v>67</v>
       </c>
       <c r="C255">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D255" s="2">
-        <v>5.8027522862000002E-11</v>
+        <v>7.1844269091000003E-13</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5917,10 +5917,10 @@
         <v>67</v>
       </c>
       <c r="C256">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D256" s="2">
-        <v>4.6401441154000002E-11</v>
+        <v>5.8027522862000002E-11</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5931,10 +5931,10 @@
         <v>67</v>
       </c>
       <c r="C257">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D257" s="2">
-        <v>4.895085847E-10</v>
+        <v>4.6401441154000002E-11</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5945,10 +5945,10 @@
         <v>67</v>
       </c>
       <c r="C258">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D258" s="2">
-        <v>6.0000292303999998E-10</v>
+        <v>4.895085847E-10</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5959,10 +5959,10 @@
         <v>67</v>
       </c>
       <c r="C259">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D259" s="2">
-        <v>9.8090073872000002E-10</v>
+        <v>6.0000292303999998E-10</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5973,24 +5973,24 @@
         <v>67</v>
       </c>
       <c r="C260">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D260" s="2">
-        <v>1.5019825369E-9</v>
+        <v>9.8090073872000002E-10</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C261">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D261" s="2">
-        <v>1.3282704505999999E-9</v>
+        <v>1.5019825369E-9</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -6001,24 +6001,24 @@
         <v>69</v>
       </c>
       <c r="C262">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D262" s="2">
-        <v>2.2561561907999998E-9</v>
+        <v>1.3282704505999999E-9</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C263">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D263" s="2">
-        <v>8.6183861476000001E-13</v>
+        <v>2.2561561907999998E-9</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6029,10 +6029,10 @@
         <v>71</v>
       </c>
       <c r="C264">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D264" s="2">
-        <v>4.8646577810000003E-11</v>
+        <v>8.6183861476000001E-13</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6043,10 +6043,10 @@
         <v>71</v>
       </c>
       <c r="C265">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D265" s="2">
-        <v>2.0721704214E-9</v>
+        <v>4.8646577810000003E-11</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -6057,10 +6057,10 @@
         <v>71</v>
       </c>
       <c r="C266">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D266" s="2">
-        <v>2.1375023244E-9</v>
+        <v>2.0721704214E-9</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6071,10 +6071,10 @@
         <v>71</v>
       </c>
       <c r="C267">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D267" s="2">
-        <v>1.6029653915000001E-9</v>
+        <v>2.1375023244E-9</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,38 +6085,38 @@
         <v>71</v>
       </c>
       <c r="C268">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D268" s="2">
-        <v>4.5952003741E-10</v>
+        <v>1.6029653915000001E-9</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C269">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D269" s="2">
-        <v>1.2735339834E-9</v>
+        <v>4.5952003741E-10</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C270">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D270" s="2">
-        <v>3.3798049880999998E-12</v>
+        <v>1.2735339834E-9</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -6127,10 +6127,10 @@
         <v>75</v>
       </c>
       <c r="C271">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D271" s="2">
-        <v>2.2693666104999999E-10</v>
+        <v>3.3798049880999998E-12</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -6141,10 +6141,10 @@
         <v>75</v>
       </c>
       <c r="C272">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D272" s="2">
-        <v>3.8593349386999998E-10</v>
+        <v>2.2693666104999999E-10</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6155,10 +6155,10 @@
         <v>75</v>
       </c>
       <c r="C273">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D273" s="2">
-        <v>5.3111221240999998E-10</v>
+        <v>3.8593349386999998E-10</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6169,10 +6169,10 @@
         <v>75</v>
       </c>
       <c r="C274">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D274" s="2">
-        <v>3.0454801966999998E-10</v>
+        <v>5.3111221240999998E-10</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6183,10 +6183,10 @@
         <v>75</v>
       </c>
       <c r="C275">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D275" s="2">
-        <v>6.9340263069999998E-10</v>
+        <v>3.0454801966999998E-10</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6197,24 +6197,24 @@
         <v>75</v>
       </c>
       <c r="C276">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D276" s="2">
-        <v>1.6111323451000001E-10</v>
+        <v>6.9340263069999998E-10</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C277">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D277" s="2">
-        <v>3.7001177649000002E-10</v>
+        <v>1.6111323451000001E-10</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6225,24 +6225,24 @@
         <v>77</v>
       </c>
       <c r="C278">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D278" s="2">
-        <v>8.9194776192999999E-10</v>
+        <v>3.7001177649000002E-10</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C279">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D279" s="2">
-        <v>1.7805433202999999E-10</v>
+        <v>8.9194776192999999E-10</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6253,10 +6253,10 @@
         <v>79</v>
       </c>
       <c r="C280">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D280" s="2">
-        <v>1.6730310003000001E-9</v>
+        <v>1.7805433202999999E-10</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6267,10 +6267,10 @@
         <v>79</v>
       </c>
       <c r="C281">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D281" s="2">
-        <v>1.8603777345999999E-9</v>
+        <v>1.6730310003000001E-9</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6281,52 +6281,52 @@
         <v>79</v>
       </c>
       <c r="C282">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D282" s="2">
-        <v>5.3507313666000001E-9</v>
+        <v>1.8603777345999999E-9</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C283">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D283" s="2">
-        <v>7.2558884649000002E-10</v>
+        <v>5.3507313666000001E-9</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C284">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D284" s="2">
-        <v>1.888131758E-10</v>
+        <v>7.2558884649000002E-10</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C285">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D285" s="2">
-        <v>1.0490354517E-15</v>
+        <v>1.888131758E-10</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6337,10 +6337,10 @@
         <v>85</v>
       </c>
       <c r="C286">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D286" s="2">
-        <v>1.2792875257000001E-11</v>
+        <v>1.0490354517E-15</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6351,9 +6351,23 @@
         <v>85</v>
       </c>
       <c r="C287">
+        <v>235</v>
+      </c>
+      <c r="D287" s="2">
+        <v>1.2792875257000001E-11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>92</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C288">
         <v>238</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D288" s="2">
         <v>4.0391128556000002E-11</v>
       </c>
     </row>

--- a/Data/Asplund_2008.xlsx
+++ b/Data/Asplund_2008.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="5820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="nuppn" sheetId="3" r:id="rId2"/>
+    <sheet name="nuppn_presentday" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="93">
   <si>
     <t>Z</t>
   </si>
@@ -302,6 +303,9 @@
   <si>
     <t>Abundance</t>
   </si>
+  <si>
+    <t>Nuppn_Aspund</t>
+  </si>
 </sst>
 </file>
 
@@ -339,13 +343,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,9 +647,11 @@
     <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,8 +670,11 @@
       <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -679,8 +693,16 @@
       <c r="F2" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H33" si="0">G2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -699,8 +721,16 @@
       <c r="F3" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>10.93</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -719,8 +749,19 @@
       <c r="F4" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3.26</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.21</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I56" si="1">G4-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -739,8 +780,16 @@
       <c r="F5" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1.38</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -759,8 +808,16 @@
       <c r="F6" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>2.7</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -779,8 +836,16 @@
       <c r="F7" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>8.43</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -799,8 +864,16 @@
       <c r="F8" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>7.83</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -819,8 +892,16 @@
       <c r="F9" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>8.69</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -839,8 +920,16 @@
       <c r="F10" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -859,8 +948,16 @@
       <c r="F11" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>7.93</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -879,8 +976,16 @@
       <c r="F12" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>6.24</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -899,8 +1004,16 @@
       <c r="F13" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>7.6</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -919,8 +1032,16 @@
       <c r="F14" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>6.45</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -939,8 +1060,16 @@
       <c r="F15" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>7.51</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -959,8 +1088,16 @@
       <c r="F16" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>5.41</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -979,8 +1116,16 @@
       <c r="F17" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>7.12</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -999,8 +1144,16 @@
       <c r="F18" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>5.5</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1019,8 +1172,16 @@
       <c r="F19" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>6.4</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1039,8 +1200,16 @@
       <c r="F20" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>5.03</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1059,8 +1228,16 @@
       <c r="F21" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>6.34</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1079,8 +1256,16 @@
       <c r="F22" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>3.15</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1099,8 +1284,16 @@
       <c r="F23" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>4.95</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1119,8 +1312,16 @@
       <c r="F24" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>3.93</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1139,8 +1340,16 @@
       <c r="F25" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>5.64</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1159,8 +1368,16 @@
       <c r="F26" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>5.43</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1179,8 +1396,16 @@
       <c r="F27" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>7.5</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1199,8 +1424,16 @@
       <c r="F28" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>4.99</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1219,8 +1452,16 @@
       <c r="F29" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>6.22</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1239,8 +1480,16 @@
       <c r="F30" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1259,8 +1508,16 @@
       <c r="F31" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1279,8 +1536,16 @@
       <c r="F32" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>3.04</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1299,8 +1564,16 @@
       <c r="F33" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>3.65</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1319,8 +1592,16 @@
       <c r="F34" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1339,8 +1620,16 @@
       <c r="F35" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>3.34</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1359,8 +1648,16 @@
       <c r="F36" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>2.54</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1379,8 +1676,16 @@
       <c r="F37" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>3.25</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" ref="H37:H47" si="2">G37-C37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1399,8 +1704,16 @@
       <c r="F38" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>2.52</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1419,8 +1732,16 @@
       <c r="F39" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>2.87</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1439,8 +1760,16 @@
       <c r="F40" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>2.21</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1459,8 +1788,16 @@
       <c r="F41" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>2.58</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1479,8 +1816,16 @@
       <c r="F42" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>1.46</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1499,8 +1844,16 @@
       <c r="F43" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>1.88</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1519,8 +1872,16 @@
       <c r="F44" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>1.75</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1539,8 +1900,16 @@
       <c r="F45" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>0.91</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1559,8 +1928,16 @@
       <c r="F46" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>1.57</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1579,8 +1956,16 @@
       <c r="F47" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0.94</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1599,8 +1984,16 @@
       <c r="F48" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>1.71</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1619,8 +2012,16 @@
       <c r="F49" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>0.8</v>
+      </c>
+      <c r="H49" s="4">
+        <f>G49-C49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1639,8 +2040,16 @@
       <c r="F50" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>2.04</v>
+      </c>
+      <c r="H50" s="4">
+        <f>G50-C50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1659,8 +2068,16 @@
       <c r="F51" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1.01</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1679,8 +2096,16 @@
       <c r="F52" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1699,8 +2124,16 @@
       <c r="F53" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>1.55</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1719,8 +2152,16 @@
       <c r="F54" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H54" s="4">
+        <f>G54-C54</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1739,8 +2180,16 @@
       <c r="F55" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1.08</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1759,8 +2208,19 @@
       <c r="F56" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" ref="H56:H71" si="3">G56-C56</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1779,8 +2239,16 @@
       <c r="F57" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1799,8 +2267,16 @@
       <c r="F58" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>1.58</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1819,8 +2295,16 @@
       <c r="F59" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0.72</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1839,8 +2323,16 @@
       <c r="F60" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>1.42</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>62</v>
       </c>
@@ -1859,8 +2351,16 @@
       <c r="F61" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>0.96</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>63</v>
       </c>
@@ -1879,8 +2379,16 @@
       <c r="F62" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0.52</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>64</v>
       </c>
@@ -1899,8 +2407,16 @@
       <c r="F63" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>1.07</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>65</v>
       </c>
@@ -1919,8 +2435,16 @@
       <c r="F64" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>0.3</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>66</v>
       </c>
@@ -1939,8 +2463,16 @@
       <c r="F65" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>67</v>
       </c>
@@ -1959,8 +2491,16 @@
       <c r="F66" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0.48</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>68</v>
       </c>
@@ -1979,8 +2519,16 @@
       <c r="F67" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0.92</v>
+      </c>
+      <c r="H67" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>69</v>
       </c>
@@ -1999,8 +2547,16 @@
       <c r="F68" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0.1</v>
+      </c>
+      <c r="H68" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>70</v>
       </c>
@@ -2019,8 +2575,16 @@
       <c r="F69" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>0.84</v>
+      </c>
+      <c r="H69" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>71</v>
       </c>
@@ -2039,8 +2603,16 @@
       <c r="F70" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0.1</v>
+      </c>
+      <c r="H70" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>72</v>
       </c>
@@ -2059,8 +2631,16 @@
       <c r="F71" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>0.85</v>
+      </c>
+      <c r="H71" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>73</v>
       </c>
@@ -2079,8 +2659,16 @@
       <c r="F72" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>-0.12</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4">
+        <f t="shared" ref="I72:I84" si="4">G72-E72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>74</v>
       </c>
@@ -2099,8 +2687,16 @@
       <c r="F73" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>0.85</v>
+      </c>
+      <c r="H73" s="4">
+        <f>G73-C73</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>75</v>
       </c>
@@ -2119,8 +2715,16 @@
       <c r="F74" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0.26</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>76</v>
       </c>
@@ -2139,8 +2743,16 @@
       <c r="F75" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>1.4</v>
+      </c>
+      <c r="H75" s="4">
+        <f>G75-C75</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>77</v>
       </c>
@@ -2159,8 +2771,16 @@
       <c r="F76" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>1.38</v>
+      </c>
+      <c r="H76" s="4">
+        <f>G76-C76</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>78</v>
       </c>
@@ -2179,8 +2799,16 @@
       <c r="F77" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>1.62</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>79</v>
       </c>
@@ -2199,8 +2827,16 @@
       <c r="F78" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>0.92</v>
+      </c>
+      <c r="H78" s="4">
+        <f>G78-C78</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>80</v>
       </c>
@@ -2219,8 +2855,16 @@
       <c r="F79" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>1.17</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>81</v>
       </c>
@@ -2239,8 +2883,16 @@
       <c r="F80" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>0.9</v>
+      </c>
+      <c r="H80" s="4">
+        <f>G80-C80</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>82</v>
       </c>
@@ -2259,8 +2911,16 @@
       <c r="F81" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>1.75</v>
+      </c>
+      <c r="H81" s="4">
+        <f>G81-C81</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>83</v>
       </c>
@@ -2279,8 +2939,16 @@
       <c r="F82" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>0.65</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>90</v>
       </c>
@@ -2299,8 +2967,16 @@
       <c r="F83" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0.02</v>
+      </c>
+      <c r="H83" s="4">
+        <f>G83-C83</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>92</v>
       </c>
@@ -2318,6 +2994,14 @@
       </c>
       <c r="F84" s="1">
         <v>0.03</v>
+      </c>
+      <c r="G84">
+        <v>-0.54</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2327,19 +3011,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D288"/>
+  <dimension ref="A1:L288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +3041,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2366,8 +3054,9 @@
       <c r="D2" s="2">
         <v>0.71538567254999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2381,7 +3070,7 @@
         <v>1.4307999611E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2394,8 +3083,9 @@
       <c r="D4" s="2">
         <v>4.4869800150000003E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2409,7 +3099,7 @@
         <v>0.27025513110999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2422,8 +3112,9 @@
       <c r="D6" s="2">
         <v>6.4407632918000004E-10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2437,7 +3128,7 @@
         <v>9.1487407785000008E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2451,7 +3142,7 @@
         <v>1.6779801602000001E-10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2465,7 +3156,7 @@
         <v>7.7517077092000004E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2479,7 +3170,7 @@
         <v>3.4321757097999999E-9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2493,7 +3184,7 @@
         <v>2.4825306734E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2507,7 +3198,7 @@
         <v>3.0083012114999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -2521,7 +3212,7 @@
         <v>7.3396723494000005E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -2535,7 +3226,7 @@
         <v>1.8049744286000001E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2549,7 +3240,7 @@
         <v>6.0761694571000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -4803,7 +5494,7 @@
         <v>1.4610625437E-9</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>55</v>
       </c>
@@ -4817,7 +5508,7 @@
         <v>1.2427848577999999E-9</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>56</v>
       </c>
@@ -4831,7 +5522,7 @@
         <v>1.6210392471999999E-11</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>56</v>
       </c>
@@ -4845,7 +5536,7 @@
         <v>1.5683378261000001E-11</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>56</v>
       </c>
@@ -4859,7 +5550,7 @@
         <v>3.8100068888999998E-10</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>56</v>
       </c>
@@ -4872,8 +5563,12 @@
       <c r="D181" s="2">
         <v>1.0468760862000001E-9</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L181">
+        <f>EXP(-9.81)*0.73</f>
+        <v>4.0076888163235144E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>56</v>
       </c>
@@ -4886,8 +5581,12 @@
       <c r="D182" s="2">
         <v>1.2565336325E-9</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <f>(10^-9.81)*0.73*138</f>
+        <v>1.5602778618924304E-8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>56</v>
       </c>
@@ -4900,8 +5599,13 @@
       <c r="D183" s="2">
         <v>1.8101808831E-9</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="2"/>
+      <c r="G183" s="6" t="e">
+        <f>LOG10(E183/SUM(D2:D3))+12</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>56</v>
       </c>
@@ -4914,8 +5618,13 @@
       <c r="D184" s="2">
         <v>1.1639395884000001E-8</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="2"/>
+      <c r="G184" s="2" t="e">
+        <f ca="1">nautrallog(E183/SUM(D2:D3))+12</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>57</v>
       </c>
@@ -4929,7 +5638,7 @@
         <v>1.2287535649999999E-12</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>57</v>
       </c>
@@ -4943,7 +5652,7 @@
         <v>1.3588256131999999E-9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>58</v>
       </c>
@@ -4957,7 +5666,7 @@
         <v>7.4345544909999997E-12</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>58</v>
       </c>
@@ -4971,7 +5680,7 @@
         <v>1.023521854E-11</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>58</v>
       </c>
@@ -4985,7 +5694,7 @@
         <v>3.6590655111999999E-9</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>58</v>
       </c>
@@ -4999,7 +5708,7 @@
         <v>4.6634040870999998E-10</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>59</v>
       </c>
@@ -5013,7 +5722,7 @@
         <v>5.7512656071999996E-10</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>60</v>
       </c>
@@ -6370,6 +7079,4333 @@
       <c r="D288" s="2">
         <v>4.0391128556000002E-11</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F287"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.73596668816999999</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.8556061489E-5</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.1190147714999999E-5</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.25052697143000002</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.0982101440000004E-10</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.6633985227000008E-9</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.5889458325000001E-10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.3108897214999996E-10</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.2533090395999999E-9</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.3507685260000001E-3</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.8527998037999998E-5</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.9406617073999996E-4</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.7339763949000002E-6</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5.7538057420000004E-3</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.2795989281999998E-6</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.2979439361999999E-5</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5.0771522135999999E-7</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.1644309284999999E-3</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.9309004262999998E-6</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.4182582131999994E-5</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2.9416731658999999E-5</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5.5547041700000003E-4</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="5">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7.3271799956999998E-5</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8.3835889718999999E-5</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5.6005457207999999E-5</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.1502860599000004E-4</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3.2344733443999999E-5</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.2057027062999999E-5</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="5">
+        <v>31</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5.8644633523E-6</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="5">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.9500029212000003E-4</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="5">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.4012743737000002E-6</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="5">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.3904106282E-5</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="5">
+        <v>36</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5.9376966329999998E-8</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="5">
+        <v>35</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6.1721666862000002E-6</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="5">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2.0864298951999999E-6</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="5">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5.6300431687000003E-5</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.0805107808E-5</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.8191213931999999E-8</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="5">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2.8682552653999998E-6</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3.6812679537999999E-10</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2.1761042663000001E-7</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2">
+        <v>6.2435855893999996E-5</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="5">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4.3754240931999998E-7</v>
+      </c>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5">
+        <v>43</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9.3469260546999999E-8</v>
+      </c>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="5">
+        <v>44</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.4778609147000001E-6</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="5">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2.9626776813999998E-9</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="5">
+        <v>48</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.4452714601999999E-7</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5">
+        <v>45</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4.6782033609999997E-8</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="5">
+        <v>46</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2.4890047082000002E-7</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="5">
+        <v>47</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2.2927791424000001E-7</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="5">
+        <v>48</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2.3210962331000002E-6</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="5">
+        <v>49</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.7385198124000001E-7</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="5">
+        <v>50</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.7005341110999999E-7</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="5">
+        <v>50</v>
+      </c>
+      <c r="D55" s="2">
+        <v>7.8208711257E-10</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="5">
+        <v>51</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3.1867718296999999E-7</v>
+      </c>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="5">
+        <v>50</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6.9798543152E-7</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="5">
+        <v>52</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.3997791660999999E-5</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="5">
+        <v>53</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.6176832399000001E-6</v>
+      </c>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="5">
+        <v>54</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4.1023847968E-7</v>
+      </c>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="5">
+        <v>55</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1.0895051120999999E-5</v>
+      </c>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>26</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="5">
+        <v>54</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7.3458973982000006E-5</v>
+      </c>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>26</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="5">
+        <v>56</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1.1958580082000001E-3</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="5">
+        <v>57</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2.8110747566999999E-5</v>
+      </c>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="5">
+        <v>58</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3.8066564599000001E-6</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="5">
+        <v>59</v>
+      </c>
+      <c r="D66" s="2">
+        <v>4.2434451651E-6</v>
+      </c>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="5">
+        <v>58</v>
+      </c>
+      <c r="D67" s="2">
+        <v>4.8227455344999998E-5</v>
+      </c>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="5">
+        <v>60</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.9217720126999999E-5</v>
+      </c>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="5">
+        <v>61</v>
+      </c>
+      <c r="D69" s="2">
+        <v>8.4930400393000001E-7</v>
+      </c>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="5">
+        <v>62</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2.7523454738000002E-6</v>
+      </c>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="5">
+        <v>64</v>
+      </c>
+      <c r="D71" s="2">
+        <v>7.2355225732999999E-7</v>
+      </c>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>29</v>
+      </c>
+      <c r="B72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="5">
+        <v>63</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4.9676389298999998E-7</v>
+      </c>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>29</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="5">
+        <v>65</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2.2840053326999999E-7</v>
+      </c>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>30</v>
+      </c>
+      <c r="B74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="5">
+        <v>64</v>
+      </c>
+      <c r="D74" s="2">
+        <v>8.3166959880999998E-7</v>
+      </c>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="5">
+        <v>66</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4.9205621506000001E-7</v>
+      </c>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>30</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="5">
+        <v>67</v>
+      </c>
+      <c r="D76" s="2">
+        <v>7.3404932266999998E-8</v>
+      </c>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>30</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" s="5">
+        <v>68</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3.4070363537999997E-7</v>
+      </c>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="5">
+        <v>70</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.159728453E-8</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>31</v>
+      </c>
+      <c r="B79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="5">
+        <v>69</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3.3469346198999999E-8</v>
+      </c>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>31</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="5">
+        <v>71</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2.2856610661999998E-8</v>
+      </c>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="5">
+        <v>70</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4.8864834914000002E-8</v>
+      </c>
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="5">
+        <v>72</v>
+      </c>
+      <c r="D82" s="2">
+        <v>6.5476077828999998E-8</v>
+      </c>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>32</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="5">
+        <v>73</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1.8519870400000001E-8</v>
+      </c>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="5">
+        <v>74</v>
+      </c>
+      <c r="D84" s="2">
+        <v>8.7440498619000005E-8</v>
+      </c>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>32</v>
+      </c>
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="5">
+        <v>76</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1.8598869174000001E-8</v>
+      </c>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="5">
+        <v>75</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1.1013563148E-8</v>
+      </c>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="5">
+        <v>74</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1.0592538802E-9</v>
+      </c>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="5">
+        <v>76</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1.1461311829E-8</v>
+      </c>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="5">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2">
+        <v>9.4659967148000007E-9</v>
+      </c>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="5">
+        <v>78</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2.9855675868000002E-8</v>
+      </c>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="5">
+        <v>80</v>
+      </c>
+      <c r="D91" s="2">
+        <v>6.3899805104999995E-8</v>
+      </c>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="5">
+        <v>82</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1.1527746654999999E-8</v>
+      </c>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="5">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1.0218371629E-8</v>
+      </c>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>35</v>
+      </c>
+      <c r="B94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="5">
+        <v>81</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1.0193464916999999E-8</v>
+      </c>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" s="5">
+        <v>78</v>
+      </c>
+      <c r="D95" s="2">
+        <v>3.6954706386999998E-10</v>
+      </c>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="5">
+        <v>80</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2.4395655442000001E-9</v>
+      </c>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>36</v>
+      </c>
+      <c r="B97" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="5">
+        <v>82</v>
+      </c>
+      <c r="D97" s="2">
+        <v>1.2502773414000001E-8</v>
+      </c>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="5">
+        <v>83</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1.2546617536999999E-8</v>
+      </c>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>36</v>
+      </c>
+      <c r="B99" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="5">
+        <v>84</v>
+      </c>
+      <c r="D99" s="2">
+        <v>6.2554439242999998E-8</v>
+      </c>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="5">
+        <v>86</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1.9370726284E-8</v>
+      </c>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>37</v>
+      </c>
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="5">
+        <v>85</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1.4949082261999999E-8</v>
+      </c>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="5">
+        <v>87</v>
+      </c>
+      <c r="D102" s="2">
+        <v>5.9016142632999996E-9</v>
+      </c>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>38</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="5">
+        <v>84</v>
+      </c>
+      <c r="D103" s="2">
+        <v>2.5439999370999999E-10</v>
+      </c>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>38</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="5">
+        <v>86</v>
+      </c>
+      <c r="D104" s="2">
+        <v>4.6061171261999997E-9</v>
+      </c>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>38</v>
+      </c>
+      <c r="B105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="5">
+        <v>87</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3.5016400914999999E-9</v>
+      </c>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>38</v>
+      </c>
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="5">
+        <v>88</v>
+      </c>
+      <c r="D106" s="2">
+        <v>3.9490300797000003E-8</v>
+      </c>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="5">
+        <v>89</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1.0623230126E-8</v>
+      </c>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>40</v>
+      </c>
+      <c r="B108" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="5">
+        <v>90</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1.2957205696E-8</v>
+      </c>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
+        <v>82</v>
+      </c>
+      <c r="C109" s="5">
+        <v>91</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2.8577019955000001E-9</v>
+      </c>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="5">
+        <v>92</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4.4138465398E-9</v>
+      </c>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>40</v>
+      </c>
+      <c r="B111" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="5">
+        <v>94</v>
+      </c>
+      <c r="D111" s="2">
+        <v>4.5713472080000002E-9</v>
+      </c>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>40</v>
+      </c>
+      <c r="B112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="5">
+        <v>96</v>
+      </c>
+      <c r="D112" s="2">
+        <v>7.5186646436999999E-10</v>
+      </c>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>41</v>
+      </c>
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" s="5">
+        <v>93</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1.9740108318000001E-9</v>
+      </c>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>42</v>
+      </c>
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" s="5">
+        <v>92</v>
+      </c>
+      <c r="D114" s="2">
+        <v>7.6203880869000002E-10</v>
+      </c>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>42</v>
+      </c>
+      <c r="B115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" s="5">
+        <v>94</v>
+      </c>
+      <c r="D115" s="2">
+        <v>4.8526224967000005E-10</v>
+      </c>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>42</v>
+      </c>
+      <c r="B116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" s="5">
+        <v>95</v>
+      </c>
+      <c r="D116" s="2">
+        <v>8.4437619209000005E-10</v>
+      </c>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>42</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="5">
+        <v>96</v>
+      </c>
+      <c r="D117" s="2">
+        <v>8.9375664750000003E-10</v>
+      </c>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>42</v>
+      </c>
+      <c r="B118" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="5">
+        <v>97</v>
+      </c>
+      <c r="D118" s="2">
+        <v>5.1745615090000001E-10</v>
+      </c>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>42</v>
+      </c>
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" s="5">
+        <v>98</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1.3203898337000001E-9</v>
+      </c>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>42</v>
+      </c>
+      <c r="B120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C120" s="5">
+        <v>100</v>
+      </c>
+      <c r="D120" s="2">
+        <v>5.3783701084000004E-10</v>
+      </c>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>44</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="5">
+        <v>96</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2.2019342022000001E-10</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>44</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="5">
+        <v>98</v>
+      </c>
+      <c r="D122" s="2">
+        <v>7.5797605113999996E-11</v>
+      </c>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>44</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="5">
+        <v>99</v>
+      </c>
+      <c r="D123" s="2">
+        <v>5.2273426776999997E-10</v>
+      </c>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>44</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="5">
+        <v>100</v>
+      </c>
+      <c r="D124" s="2">
+        <v>5.2141728404999997E-10</v>
+      </c>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>44</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="5">
+        <v>101</v>
+      </c>
+      <c r="D125" s="2">
+        <v>7.1312717027000003E-10</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>44</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="5">
+        <v>102</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1.3319633388999999E-9</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>44</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="5">
+        <v>104</v>
+      </c>
+      <c r="D127" s="2">
+        <v>8.0149888449E-10</v>
+      </c>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>45</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="5">
+        <v>103</v>
+      </c>
+      <c r="D128" s="2">
+        <v>6.1617462230000005E-10</v>
+      </c>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>46</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="5">
+        <v>102</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2.8448994831E-11</v>
+      </c>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>46</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="5">
+        <v>104</v>
+      </c>
+      <c r="D130" s="2">
+        <v>3.1679995628E-10</v>
+      </c>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>46</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="5">
+        <v>105</v>
+      </c>
+      <c r="D131" s="2">
+        <v>6.4112779441000003E-10</v>
+      </c>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>46</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="5">
+        <v>106</v>
+      </c>
+      <c r="D132" s="2">
+        <v>7.9215848754999998E-10</v>
+      </c>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>46</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="5">
+        <v>108</v>
+      </c>
+      <c r="D133" s="2">
+        <v>7.8141218327000004E-10</v>
+      </c>
+      <c r="F133" s="2"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>46</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="5">
+        <v>110</v>
+      </c>
+      <c r="D134" s="2">
+        <v>3.5252253110000002E-10</v>
+      </c>
+      <c r="F134" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>47</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="5">
+        <v>107</v>
+      </c>
+      <c r="D135" s="2">
+        <v>3.5555652356999998E-10</v>
+      </c>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>47</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="5">
+        <v>109</v>
+      </c>
+      <c r="D136" s="2">
+        <v>3.3650132077000001E-10</v>
+      </c>
+      <c r="F136" s="2"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>48</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="5">
+        <v>106</v>
+      </c>
+      <c r="D137" s="2">
+        <v>5.0012948742000002E-11</v>
+      </c>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>48</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="5">
+        <v>108</v>
+      </c>
+      <c r="D138" s="2">
+        <v>3.6281091570000001E-11</v>
+      </c>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>48</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="5">
+        <v>110</v>
+      </c>
+      <c r="D139" s="2">
+        <v>5.1858709642000002E-10</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>48</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="5">
+        <v>111</v>
+      </c>
+      <c r="D140" s="2">
+        <v>5.3628979300000005E-10</v>
+      </c>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>48</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="5">
+        <v>112</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1.0200980735999999E-9</v>
+      </c>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>48</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="5">
+        <v>113</v>
+      </c>
+      <c r="D142" s="2">
+        <v>5.2121419169000005E-10</v>
+      </c>
+      <c r="F142" s="2"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>48</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="5">
+        <v>114</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1.2362521508000001E-9</v>
+      </c>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>48</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="5">
+        <v>116</v>
+      </c>
+      <c r="D144" s="2">
+        <v>3.2794905951000001E-10</v>
+      </c>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>49</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="5">
+        <v>113</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2.2500895516999999E-11</v>
+      </c>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>49</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="5">
+        <v>115</v>
+      </c>
+      <c r="D146" s="2">
+        <v>5.1112934397000003E-10</v>
+      </c>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>50</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="5">
+        <v>112</v>
+      </c>
+      <c r="D147" s="2">
+        <v>8.7761459165000003E-11</v>
+      </c>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>50</v>
+      </c>
+      <c r="B148" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148" s="5">
+        <v>114</v>
+      </c>
+      <c r="D148" s="2">
+        <v>6.0625711539E-11</v>
+      </c>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>50</v>
+      </c>
+      <c r="B149" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="5">
+        <v>115</v>
+      </c>
+      <c r="D149" s="2">
+        <v>3.14603914E-11</v>
+      </c>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>50</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="5">
+        <v>116</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1.3607222502999999E-9</v>
+      </c>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>50</v>
+      </c>
+      <c r="B151" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="5">
+        <v>117</v>
+      </c>
+      <c r="D151" s="2">
+        <v>7.2474864264000001E-10</v>
+      </c>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>50</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="5">
+        <v>118</v>
+      </c>
+      <c r="D152" s="2">
+        <v>2.3066224749000001E-9</v>
+      </c>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>50</v>
+      </c>
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="5">
+        <v>119</v>
+      </c>
+      <c r="D153" s="2">
+        <v>8.24430108E-10</v>
+      </c>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>50</v>
+      </c>
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" s="5">
+        <v>120</v>
+      </c>
+      <c r="D154" s="2">
+        <v>3.1562555965000002E-9</v>
+      </c>
+      <c r="F154" s="2"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>50</v>
+      </c>
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="5">
+        <v>122</v>
+      </c>
+      <c r="D155" s="2">
+        <v>4.5573627084E-10</v>
+      </c>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>50</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="5">
+        <v>124</v>
+      </c>
+      <c r="D156" s="2">
+        <v>5.7928437915000002E-10</v>
+      </c>
+      <c r="F156" s="2"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>51</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="5">
+        <v>121</v>
+      </c>
+      <c r="D157" s="2">
+        <v>5.2137076363000002E-10</v>
+      </c>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>51</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="5">
+        <v>123</v>
+      </c>
+      <c r="D158" s="2">
+        <v>3.9635426096000001E-10</v>
+      </c>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>52</v>
+      </c>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="5">
+        <v>120</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1.2832730151E-11</v>
+      </c>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>52</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="5">
+        <v>122</v>
+      </c>
+      <c r="D160" s="2">
+        <v>3.5375336658000001E-10</v>
+      </c>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>52</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C161" s="5">
+        <v>123</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1.2441064533E-10</v>
+      </c>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>52</v>
+      </c>
+      <c r="B162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="5">
+        <v>124</v>
+      </c>
+      <c r="D162" s="2">
+        <v>6.6523447242999995E-10</v>
+      </c>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>52</v>
+      </c>
+      <c r="B163" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="5">
+        <v>125</v>
+      </c>
+      <c r="D163" s="2">
+        <v>9.9406315696999998E-10</v>
+      </c>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>52</v>
+      </c>
+      <c r="B164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="5">
+        <v>126</v>
+      </c>
+      <c r="D164" s="2">
+        <v>2.6600645510999999E-9</v>
+      </c>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>52</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" s="5">
+        <v>128</v>
+      </c>
+      <c r="D165" s="2">
+        <v>4.5181191143000001E-9</v>
+      </c>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>52</v>
+      </c>
+      <c r="B166" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="5">
+        <v>130</v>
+      </c>
+      <c r="D166" s="2">
+        <v>4.8945614606999999E-9</v>
+      </c>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>53</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="5">
+        <v>127</v>
+      </c>
+      <c r="D167" s="2">
+        <v>3.3164259431E-9</v>
+      </c>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>54</v>
+      </c>
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" s="5">
+        <v>124</v>
+      </c>
+      <c r="D168" s="2">
+        <v>2.0458697375000001E-11</v>
+      </c>
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>54</v>
+      </c>
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" s="5">
+        <v>126</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1.8049083355000001E-11</v>
+      </c>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>54</v>
+      </c>
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" s="5">
+        <v>128</v>
+      </c>
+      <c r="D170" s="2">
+        <v>3.6507442977E-10</v>
+      </c>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>54</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="5">
+        <v>129</v>
+      </c>
+      <c r="D171" s="2">
+        <v>4.5306115315999997E-9</v>
+      </c>
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>54</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" s="5">
+        <v>130</v>
+      </c>
+      <c r="D172" s="2">
+        <v>7.2825595682000001E-10</v>
+      </c>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>54</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" s="5">
+        <v>131</v>
+      </c>
+      <c r="D173" s="2">
+        <v>3.6525348814000001E-9</v>
+      </c>
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>54</v>
+      </c>
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" s="5">
+        <v>132</v>
+      </c>
+      <c r="D174" s="2">
+        <v>4.4502654844999997E-9</v>
+      </c>
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>54</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" s="5">
+        <v>134</v>
+      </c>
+      <c r="D175" s="2">
+        <v>1.6555736577999999E-9</v>
+      </c>
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>54</v>
+      </c>
+      <c r="B176" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" s="5">
+        <v>136</v>
+      </c>
+      <c r="D176" s="2">
+        <v>1.3689267926E-9</v>
+      </c>
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>55</v>
+      </c>
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="5">
+        <v>133</v>
+      </c>
+      <c r="D177" s="2">
+        <v>1.1768421745E-9</v>
+      </c>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>56</v>
+      </c>
+      <c r="B178" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" s="5">
+        <v>130</v>
+      </c>
+      <c r="D178" s="2">
+        <v>1.5321299522000002E-11</v>
+      </c>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>56</v>
+      </c>
+      <c r="B179" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" s="5">
+        <v>132</v>
+      </c>
+      <c r="D179" s="2">
+        <v>1.4880620004E-11</v>
+      </c>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>56</v>
+      </c>
+      <c r="B180" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" s="5">
+        <v>134</v>
+      </c>
+      <c r="D180" s="2">
+        <v>3.6078463331E-10</v>
+      </c>
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>56</v>
+      </c>
+      <c r="B181" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" s="5">
+        <v>135</v>
+      </c>
+      <c r="D181" s="2">
+        <v>9.9132840414999991E-10</v>
+      </c>
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>56</v>
+      </c>
+      <c r="B182" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182" s="5">
+        <v>136</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1.189709936E-9</v>
+      </c>
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>56</v>
+      </c>
+      <c r="B183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" s="5">
+        <v>137</v>
+      </c>
+      <c r="D183" s="2">
+        <v>1.7141319298999999E-9</v>
+      </c>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>56</v>
+      </c>
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184" s="5">
+        <v>138</v>
+      </c>
+      <c r="D184" s="2">
+        <v>1.1021958406E-8</v>
+      </c>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>57</v>
+      </c>
+      <c r="B185" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" s="5">
+        <v>138</v>
+      </c>
+      <c r="D185" s="2">
+        <v>1.15294274E-12</v>
+      </c>
+      <c r="F185" s="2"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>57</v>
+      </c>
+      <c r="B186" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186" s="5">
+        <v>139</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1.2867364484999999E-9</v>
+      </c>
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>58</v>
+      </c>
+      <c r="B187" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="5">
+        <v>136</v>
+      </c>
+      <c r="D187" s="2">
+        <v>7.0781283802E-12</v>
+      </c>
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>58</v>
+      </c>
+      <c r="B188" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="5">
+        <v>138</v>
+      </c>
+      <c r="D188" s="2">
+        <v>9.6921335719000008E-12</v>
+      </c>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>58</v>
+      </c>
+      <c r="B189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="5">
+        <v>140</v>
+      </c>
+      <c r="D189" s="2">
+        <v>3.4648747941999999E-9</v>
+      </c>
+      <c r="F189" s="2"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>58</v>
+      </c>
+      <c r="B190" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="5">
+        <v>142</v>
+      </c>
+      <c r="D190" s="2">
+        <v>4.4159619197E-10</v>
+      </c>
+      <c r="F190" s="2"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>59</v>
+      </c>
+      <c r="B191" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191" s="5">
+        <v>141</v>
+      </c>
+      <c r="D191" s="2">
+        <v>5.4461010534999997E-10</v>
+      </c>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>60</v>
+      </c>
+      <c r="B192" t="s">
+        <v>37</v>
+      </c>
+      <c r="C192" s="5">
+        <v>142</v>
+      </c>
+      <c r="D192" s="2">
+        <v>7.4659433940999999E-10</v>
+      </c>
+      <c r="F192" s="2"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>60</v>
+      </c>
+      <c r="B193" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193" s="5">
+        <v>143</v>
+      </c>
+      <c r="D193" s="2">
+        <v>3.3744758620000002E-10</v>
+      </c>
+      <c r="F193" s="2"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>60</v>
+      </c>
+      <c r="B194" t="s">
+        <v>37</v>
+      </c>
+      <c r="C194" s="5">
+        <v>144</v>
+      </c>
+      <c r="D194" s="2">
+        <v>6.6428296780000005E-10</v>
+      </c>
+      <c r="F194" s="2"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>60</v>
+      </c>
+      <c r="B195" t="s">
+        <v>37</v>
+      </c>
+      <c r="C195" s="5">
+        <v>145</v>
+      </c>
+      <c r="D195" s="2">
+        <v>2.3297680087999999E-10</v>
+      </c>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>60</v>
+      </c>
+      <c r="B196" t="s">
+        <v>37</v>
+      </c>
+      <c r="C196" s="5">
+        <v>146</v>
+      </c>
+      <c r="D196" s="2">
+        <v>4.8527702864999999E-10</v>
+      </c>
+      <c r="F196" s="2"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>60</v>
+      </c>
+      <c r="B197" t="s">
+        <v>37</v>
+      </c>
+      <c r="C197" s="5">
+        <v>148</v>
+      </c>
+      <c r="D197" s="2">
+        <v>1.6445239043E-10</v>
+      </c>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>60</v>
+      </c>
+      <c r="B198" t="s">
+        <v>37</v>
+      </c>
+      <c r="C198" s="5">
+        <v>150</v>
+      </c>
+      <c r="D198" s="2">
+        <v>1.6319023110999999E-10</v>
+      </c>
+      <c r="F198" s="2"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>62</v>
+      </c>
+      <c r="B199" t="s">
+        <v>39</v>
+      </c>
+      <c r="C199" s="5">
+        <v>144</v>
+      </c>
+      <c r="D199" s="2">
+        <v>2.9706272588000001E-11</v>
+      </c>
+      <c r="F199" s="2"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>62</v>
+      </c>
+      <c r="B200" t="s">
+        <v>39</v>
+      </c>
+      <c r="C200" s="5">
+        <v>147</v>
+      </c>
+      <c r="D200" s="2">
+        <v>1.4793946541000001E-10</v>
+      </c>
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>62</v>
+      </c>
+      <c r="B201" t="s">
+        <v>39</v>
+      </c>
+      <c r="C201" s="5">
+        <v>148</v>
+      </c>
+      <c r="D201" s="2">
+        <v>1.1166518553E-10</v>
+      </c>
+      <c r="F201" s="2"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>62</v>
+      </c>
+      <c r="B202" t="s">
+        <v>39</v>
+      </c>
+      <c r="C202" s="5">
+        <v>149</v>
+      </c>
+      <c r="D202" s="2">
+        <v>1.3820581786999999E-10</v>
+      </c>
+      <c r="F202" s="2"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>62</v>
+      </c>
+      <c r="B203" t="s">
+        <v>39</v>
+      </c>
+      <c r="C203" s="5">
+        <v>150</v>
+      </c>
+      <c r="D203" s="2">
+        <v>7.4300316557999995E-11</v>
+      </c>
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>62</v>
+      </c>
+      <c r="B204" t="s">
+        <v>39</v>
+      </c>
+      <c r="C204" s="5">
+        <v>152</v>
+      </c>
+      <c r="D204" s="2">
+        <v>2.7283851637000002E-10</v>
+      </c>
+      <c r="F204" s="2"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>62</v>
+      </c>
+      <c r="B205" t="s">
+        <v>39</v>
+      </c>
+      <c r="C205" s="5">
+        <v>154</v>
+      </c>
+      <c r="D205" s="2">
+        <v>2.3518351813E-10</v>
+      </c>
+      <c r="F205" s="2"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>63</v>
+      </c>
+      <c r="B206" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206" s="5">
+        <v>151</v>
+      </c>
+      <c r="D206" s="2">
+        <v>1.7593906264000001E-10</v>
+      </c>
+      <c r="F206" s="2"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>63</v>
+      </c>
+      <c r="B207" t="s">
+        <v>41</v>
+      </c>
+      <c r="C207" s="5">
+        <v>153</v>
+      </c>
+      <c r="D207" s="2">
+        <v>1.9460110882000001E-10</v>
+      </c>
+      <c r="F207" s="2"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>64</v>
+      </c>
+      <c r="B208" t="s">
+        <v>43</v>
+      </c>
+      <c r="C208" s="5">
+        <v>152</v>
+      </c>
+      <c r="D208" s="2">
+        <v>2.6668108772000001E-12</v>
+      </c>
+      <c r="F208" s="2"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>64</v>
+      </c>
+      <c r="B209" t="s">
+        <v>43</v>
+      </c>
+      <c r="C209" s="5">
+        <v>154</v>
+      </c>
+      <c r="D209" s="2">
+        <v>2.9041768296000001E-11</v>
+      </c>
+      <c r="F209" s="2"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>64</v>
+      </c>
+      <c r="B210" t="s">
+        <v>43</v>
+      </c>
+      <c r="C210" s="5">
+        <v>155</v>
+      </c>
+      <c r="D210" s="2">
+        <v>1.9836001274999999E-10</v>
+      </c>
+      <c r="F210" s="2"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>64</v>
+      </c>
+      <c r="B211" t="s">
+        <v>43</v>
+      </c>
+      <c r="C211" s="5">
+        <v>156</v>
+      </c>
+      <c r="D211" s="2">
+        <v>2.7607853328000001E-10</v>
+      </c>
+      <c r="F211" s="2"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>64</v>
+      </c>
+      <c r="B212" t="s">
+        <v>43</v>
+      </c>
+      <c r="C212" s="5">
+        <v>157</v>
+      </c>
+      <c r="D212" s="2">
+        <v>2.1248609978999999E-10</v>
+      </c>
+      <c r="F212" s="2"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>64</v>
+      </c>
+      <c r="B213" t="s">
+        <v>43</v>
+      </c>
+      <c r="C213" s="5">
+        <v>158</v>
+      </c>
+      <c r="D213" s="2">
+        <v>3.3929900646000001E-10</v>
+      </c>
+      <c r="F213" s="2"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>64</v>
+      </c>
+      <c r="B214" t="s">
+        <v>43</v>
+      </c>
+      <c r="C214" s="5">
+        <v>160</v>
+      </c>
+      <c r="D214" s="2">
+        <v>3.0248667796999998E-10</v>
+      </c>
+      <c r="F214" s="2"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>65</v>
+      </c>
+      <c r="B215" t="s">
+        <v>45</v>
+      </c>
+      <c r="C215" s="5">
+        <v>159</v>
+      </c>
+      <c r="D215" s="2">
+        <v>2.3348753874000002E-10</v>
+      </c>
+      <c r="F215" s="2"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>66</v>
+      </c>
+      <c r="B216" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="5">
+        <v>156</v>
+      </c>
+      <c r="D216" s="2">
+        <v>8.0942983513000004E-13</v>
+      </c>
+      <c r="F216" s="2"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>66</v>
+      </c>
+      <c r="B217" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" s="5">
+        <v>158</v>
+      </c>
+      <c r="D217" s="2">
+        <v>1.4053836698000001E-12</v>
+      </c>
+      <c r="F217" s="2"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>66</v>
+      </c>
+      <c r="B218" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" s="5">
+        <v>160</v>
+      </c>
+      <c r="D218" s="2">
+        <v>3.4689850076999997E-11</v>
+      </c>
+      <c r="F218" s="2"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>66</v>
+      </c>
+      <c r="B219" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" s="5">
+        <v>161</v>
+      </c>
+      <c r="D219" s="2">
+        <v>2.8208759470999998E-10</v>
+      </c>
+      <c r="F219" s="2"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>66</v>
+      </c>
+      <c r="B220" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" s="5">
+        <v>162</v>
+      </c>
+      <c r="D220" s="2">
+        <v>3.8290589804E-10</v>
+      </c>
+      <c r="F220" s="2"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>66</v>
+      </c>
+      <c r="B221" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" s="5">
+        <v>163</v>
+      </c>
+      <c r="D221" s="2">
+        <v>3.7605687635999999E-10</v>
+      </c>
+      <c r="F221" s="2"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>66</v>
+      </c>
+      <c r="B222" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" s="5">
+        <v>164</v>
+      </c>
+      <c r="D222" s="2">
+        <v>4.2835664338000002E-10</v>
+      </c>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>67</v>
+      </c>
+      <c r="B223" t="s">
+        <v>49</v>
+      </c>
+      <c r="C223" s="5">
+        <v>165</v>
+      </c>
+      <c r="D223" s="2">
+        <v>3.6673345253999998E-10</v>
+      </c>
+      <c r="F223" s="2"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>68</v>
+      </c>
+      <c r="B224" t="s">
+        <v>51</v>
+      </c>
+      <c r="C224" s="5">
+        <v>162</v>
+      </c>
+      <c r="D224" s="2">
+        <v>1.3586330173E-12</v>
+      </c>
+      <c r="F224" s="2"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>68</v>
+      </c>
+      <c r="B225" t="s">
+        <v>51</v>
+      </c>
+      <c r="C225" s="5">
+        <v>164</v>
+      </c>
+      <c r="D225" s="2">
+        <v>1.6153494011000001E-11</v>
+      </c>
+      <c r="F225" s="2"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>68</v>
+      </c>
+      <c r="B226" t="s">
+        <v>51</v>
+      </c>
+      <c r="C226" s="5">
+        <v>166</v>
+      </c>
+      <c r="D226" s="2">
+        <v>3.4154126557000002E-10</v>
+      </c>
+      <c r="F226" s="2"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>68</v>
+      </c>
+      <c r="B227" t="s">
+        <v>51</v>
+      </c>
+      <c r="C227" s="5">
+        <v>167</v>
+      </c>
+      <c r="D227" s="2">
+        <v>2.3441592319999998E-10</v>
+      </c>
+      <c r="F227" s="2"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>68</v>
+      </c>
+      <c r="B228" t="s">
+        <v>51</v>
+      </c>
+      <c r="C228" s="5">
+        <v>168</v>
+      </c>
+      <c r="D228" s="2">
+        <v>2.7551711243999999E-10</v>
+      </c>
+      <c r="F228" s="2"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>68</v>
+      </c>
+      <c r="B229" t="s">
+        <v>51</v>
+      </c>
+      <c r="C229" s="5">
+        <v>170</v>
+      </c>
+      <c r="D229" s="2">
+        <v>1.5537291435000001E-10</v>
+      </c>
+      <c r="F229" s="2"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>69</v>
+      </c>
+      <c r="B230" t="s">
+        <v>53</v>
+      </c>
+      <c r="C230" s="5">
+        <v>169</v>
+      </c>
+      <c r="D230" s="2">
+        <v>1.5658612882E-10</v>
+      </c>
+      <c r="F230" s="2"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>70</v>
+      </c>
+      <c r="B231" t="s">
+        <v>55</v>
+      </c>
+      <c r="C231" s="5">
+        <v>168</v>
+      </c>
+      <c r="D231" s="2">
+        <v>1.1120369472999999E-12</v>
+      </c>
+      <c r="F231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>70</v>
+      </c>
+      <c r="B232" t="s">
+        <v>55</v>
+      </c>
+      <c r="C232" s="5">
+        <v>170</v>
+      </c>
+      <c r="D232" s="2">
+        <v>2.6314134358000001E-11</v>
+      </c>
+      <c r="F232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>70</v>
+      </c>
+      <c r="B233" t="s">
+        <v>55</v>
+      </c>
+      <c r="C233" s="5">
+        <v>171</v>
+      </c>
+      <c r="D233" s="2">
+        <v>1.2433428483999999E-10</v>
+      </c>
+      <c r="F233" s="2"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>70</v>
+      </c>
+      <c r="B234" t="s">
+        <v>55</v>
+      </c>
+      <c r="C234" s="5">
+        <v>172</v>
+      </c>
+      <c r="D234" s="2">
+        <v>1.9118277693999999E-10</v>
+      </c>
+      <c r="F234" s="2"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>70</v>
+      </c>
+      <c r="B235" t="s">
+        <v>55</v>
+      </c>
+      <c r="C235" s="5">
+        <v>173</v>
+      </c>
+      <c r="D235" s="2">
+        <v>1.4208461452000001E-10</v>
+      </c>
+      <c r="F235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>70</v>
+      </c>
+      <c r="B236" t="s">
+        <v>55</v>
+      </c>
+      <c r="C236" s="5">
+        <v>174</v>
+      </c>
+      <c r="D236" s="2">
+        <v>2.8200218267999999E-10</v>
+      </c>
+      <c r="F236" s="2"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>70</v>
+      </c>
+      <c r="B237" t="s">
+        <v>55</v>
+      </c>
+      <c r="C237" s="5">
+        <v>176</v>
+      </c>
+      <c r="D237" s="2">
+        <v>1.1434835599E-10</v>
+      </c>
+      <c r="F237" s="2"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>71</v>
+      </c>
+      <c r="B238" t="s">
+        <v>57</v>
+      </c>
+      <c r="C238" s="5">
+        <v>175</v>
+      </c>
+      <c r="D238" s="2">
+        <v>1.5795556254E-10</v>
+      </c>
+      <c r="F238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>71</v>
+      </c>
+      <c r="B239" t="s">
+        <v>57</v>
+      </c>
+      <c r="C239" s="5">
+        <v>176</v>
+      </c>
+      <c r="D239" s="2">
+        <v>4.2137790538000004E-12</v>
+      </c>
+      <c r="F239" s="2"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>72</v>
+      </c>
+      <c r="B240" t="s">
+        <v>59</v>
+      </c>
+      <c r="C240" s="5">
+        <v>174</v>
+      </c>
+      <c r="D240" s="2">
+        <v>1.4686923936E-12</v>
+      </c>
+      <c r="F240" s="2"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>72</v>
+      </c>
+      <c r="B241" t="s">
+        <v>59</v>
+      </c>
+      <c r="C241" s="5">
+        <v>176</v>
+      </c>
+      <c r="D241" s="2">
+        <v>4.8145433153000002E-11</v>
+      </c>
+      <c r="F241" s="2"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>72</v>
+      </c>
+      <c r="B242" t="s">
+        <v>59</v>
+      </c>
+      <c r="C242" s="5">
+        <v>177</v>
+      </c>
+      <c r="D242" s="2">
+        <v>1.7151011814999999E-10</v>
+      </c>
+      <c r="F242" s="2"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>72</v>
+      </c>
+      <c r="B243" t="s">
+        <v>59</v>
+      </c>
+      <c r="C243" s="5">
+        <v>178</v>
+      </c>
+      <c r="D243" s="2">
+        <v>2.5304317374999998E-10</v>
+      </c>
+      <c r="F243" s="2"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>72</v>
+      </c>
+      <c r="B244" t="s">
+        <v>59</v>
+      </c>
+      <c r="C244" s="5">
+        <v>179</v>
+      </c>
+      <c r="D244" s="2">
+        <v>1.2705051517E-10</v>
+      </c>
+      <c r="F244" s="2"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>72</v>
+      </c>
+      <c r="B245" t="s">
+        <v>59</v>
+      </c>
+      <c r="C245" s="5">
+        <v>180</v>
+      </c>
+      <c r="D245" s="2">
+        <v>3.2903961647000001E-10</v>
+      </c>
+      <c r="F245" s="2"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>73</v>
+      </c>
+      <c r="B246" t="s">
+        <v>61</v>
+      </c>
+      <c r="C246" s="5">
+        <v>180</v>
+      </c>
+      <c r="D246" s="2">
+        <v>1.2360732256999999E-14</v>
+      </c>
+      <c r="F246" s="2"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>73</v>
+      </c>
+      <c r="B247" t="s">
+        <v>61</v>
+      </c>
+      <c r="C247" s="5">
+        <v>181</v>
+      </c>
+      <c r="D247" s="2">
+        <v>1.0103962744E-10</v>
+      </c>
+      <c r="F247" s="2"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>74</v>
+      </c>
+      <c r="B248" t="s">
+        <v>63</v>
+      </c>
+      <c r="C248" s="5">
+        <v>180</v>
+      </c>
+      <c r="D248" s="2">
+        <v>1.1235590598000001E-12</v>
+      </c>
+      <c r="F248" s="2"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>74</v>
+      </c>
+      <c r="B249" t="s">
+        <v>63</v>
+      </c>
+      <c r="C249" s="5">
+        <v>182</v>
+      </c>
+      <c r="D249" s="2">
+        <v>2.5128077413999999E-10</v>
+      </c>
+      <c r="F249" s="2"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>74</v>
+      </c>
+      <c r="B250" t="s">
+        <v>63</v>
+      </c>
+      <c r="C250" s="5">
+        <v>183</v>
+      </c>
+      <c r="D250" s="2">
+        <v>1.3647922544E-10</v>
+      </c>
+      <c r="F250" s="2"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>74</v>
+      </c>
+      <c r="B251" t="s">
+        <v>63</v>
+      </c>
+      <c r="C251" s="5">
+        <v>184</v>
+      </c>
+      <c r="D251" s="2">
+        <v>2.9376790677000002E-10</v>
+      </c>
+      <c r="F251" s="2"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>74</v>
+      </c>
+      <c r="B252" t="s">
+        <v>63</v>
+      </c>
+      <c r="C252" s="5">
+        <v>186</v>
+      </c>
+      <c r="D252" s="2">
+        <v>2.7548233215999999E-10</v>
+      </c>
+      <c r="F252" s="2"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>75</v>
+      </c>
+      <c r="B253" t="s">
+        <v>65</v>
+      </c>
+      <c r="C253" s="5">
+        <v>185</v>
+      </c>
+      <c r="D253" s="2">
+        <v>9.2658803638000006E-11</v>
+      </c>
+      <c r="F253" s="2"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>75</v>
+      </c>
+      <c r="B254" t="s">
+        <v>65</v>
+      </c>
+      <c r="C254" s="5">
+        <v>187</v>
+      </c>
+      <c r="D254" s="2">
+        <v>1.5678207124000001E-10</v>
+      </c>
+      <c r="F254" s="2"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>76</v>
+      </c>
+      <c r="B255" t="s">
+        <v>67</v>
+      </c>
+      <c r="C255" s="5">
+        <v>184</v>
+      </c>
+      <c r="D255" s="2">
+        <v>6.7351860362999997E-13</v>
+      </c>
+      <c r="F255" s="2"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>76</v>
+      </c>
+      <c r="B256" t="s">
+        <v>67</v>
+      </c>
+      <c r="C256" s="5">
+        <v>186</v>
+      </c>
+      <c r="D256" s="2">
+        <v>5.4749120457000003E-11</v>
+      </c>
+      <c r="F256" s="2"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>76</v>
+      </c>
+      <c r="B257" t="s">
+        <v>67</v>
+      </c>
+      <c r="C257" s="5">
+        <v>187</v>
+      </c>
+      <c r="D257" s="2">
+        <v>5.6834232893E-11</v>
+      </c>
+      <c r="F257" s="2"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>76</v>
+      </c>
+      <c r="B258" t="s">
+        <v>67</v>
+      </c>
+      <c r="C258" s="5">
+        <v>188</v>
+      </c>
+      <c r="D258" s="2">
+        <v>4.6177989852000002E-10</v>
+      </c>
+      <c r="F258" s="2"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>76</v>
+      </c>
+      <c r="B259" t="s">
+        <v>67</v>
+      </c>
+      <c r="C259" s="5">
+        <v>189</v>
+      </c>
+      <c r="D259" s="2">
+        <v>5.6600719822999999E-10</v>
+      </c>
+      <c r="F259" s="2"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>76</v>
+      </c>
+      <c r="B260" t="s">
+        <v>67</v>
+      </c>
+      <c r="C260" s="5">
+        <v>190</v>
+      </c>
+      <c r="D260" s="2">
+        <v>9.2533417989000003E-10</v>
+      </c>
+      <c r="F260" s="2"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>76</v>
+      </c>
+      <c r="B261" t="s">
+        <v>67</v>
+      </c>
+      <c r="C261" s="5">
+        <v>192</v>
+      </c>
+      <c r="D261" s="2">
+        <v>1.4522516391000001E-9</v>
+      </c>
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>77</v>
+      </c>
+      <c r="B262" t="s">
+        <v>69</v>
+      </c>
+      <c r="C262" s="5">
+        <v>191</v>
+      </c>
+      <c r="D262" s="2">
+        <v>1.2568476792E-9</v>
+      </c>
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>77</v>
+      </c>
+      <c r="B263" t="s">
+        <v>69</v>
+      </c>
+      <c r="C263" s="5">
+        <v>193</v>
+      </c>
+      <c r="D263" s="2">
+        <v>2.1373976753E-9</v>
+      </c>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>78</v>
+      </c>
+      <c r="B264" t="s">
+        <v>71</v>
+      </c>
+      <c r="C264" s="5">
+        <v>190</v>
+      </c>
+      <c r="D264" s="2">
+        <v>7.9477367456000005E-13</v>
+      </c>
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>78</v>
+      </c>
+      <c r="B265" t="s">
+        <v>71</v>
+      </c>
+      <c r="C265" s="5">
+        <v>192</v>
+      </c>
+      <c r="D265" s="2">
+        <v>4.6104248787000002E-11</v>
+      </c>
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>78</v>
+      </c>
+      <c r="B266" t="s">
+        <v>71</v>
+      </c>
+      <c r="C266" s="5">
+        <v>194</v>
+      </c>
+      <c r="D266" s="2">
+        <v>1.9622201938999999E-9</v>
+      </c>
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>78</v>
+      </c>
+      <c r="B267" t="s">
+        <v>71</v>
+      </c>
+      <c r="C267" s="5">
+        <v>195</v>
+      </c>
+      <c r="D267" s="2">
+        <v>2.0240592346999999E-9</v>
+      </c>
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>78</v>
+      </c>
+      <c r="B268" t="s">
+        <v>71</v>
+      </c>
+      <c r="C268" s="5">
+        <v>196</v>
+      </c>
+      <c r="D268" s="2">
+        <v>1.5178909331E-9</v>
+      </c>
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>78</v>
+      </c>
+      <c r="B269" t="s">
+        <v>71</v>
+      </c>
+      <c r="C269" s="5">
+        <v>198</v>
+      </c>
+      <c r="D269" s="2">
+        <v>4.3516747893E-10</v>
+      </c>
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>79</v>
+      </c>
+      <c r="B270" t="s">
+        <v>73</v>
+      </c>
+      <c r="C270" s="5">
+        <v>197</v>
+      </c>
+      <c r="D270" s="2">
+        <v>1.2059597387E-9</v>
+      </c>
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>80</v>
+      </c>
+      <c r="B271" t="s">
+        <v>75</v>
+      </c>
+      <c r="C271" s="5">
+        <v>196</v>
+      </c>
+      <c r="D271" s="2">
+        <v>3.2738685958000002E-12</v>
+      </c>
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>80</v>
+      </c>
+      <c r="B272" t="s">
+        <v>75</v>
+      </c>
+      <c r="C272" s="5">
+        <v>198</v>
+      </c>
+      <c r="D272" s="2">
+        <v>2.1485219869999999E-10</v>
+      </c>
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>80</v>
+      </c>
+      <c r="B273" t="s">
+        <v>75</v>
+      </c>
+      <c r="C273" s="5">
+        <v>199</v>
+      </c>
+      <c r="D273" s="2">
+        <v>3.6552069074999998E-10</v>
+      </c>
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>80</v>
+      </c>
+      <c r="B274" t="s">
+        <v>75</v>
+      </c>
+      <c r="C274" s="5">
+        <v>200</v>
+      </c>
+      <c r="D274" s="2">
+        <v>5.0284408909000001E-10</v>
+      </c>
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>80</v>
+      </c>
+      <c r="B275" t="s">
+        <v>75</v>
+      </c>
+      <c r="C275" s="5">
+        <v>201</v>
+      </c>
+      <c r="D275" s="2">
+        <v>2.8841045539999999E-10</v>
+      </c>
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>80</v>
+      </c>
+      <c r="B276" t="s">
+        <v>75</v>
+      </c>
+      <c r="C276" s="5">
+        <v>202</v>
+      </c>
+      <c r="D276" s="2">
+        <v>6.5667636659000005E-10</v>
+      </c>
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>80</v>
+      </c>
+      <c r="B277" t="s">
+        <v>75</v>
+      </c>
+      <c r="C277" s="5">
+        <v>204</v>
+      </c>
+      <c r="D277" s="2">
+        <v>1.5245346229000001E-10</v>
+      </c>
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>81</v>
+      </c>
+      <c r="B278" t="s">
+        <v>77</v>
+      </c>
+      <c r="C278" s="5">
+        <v>203</v>
+      </c>
+      <c r="D278" s="2">
+        <v>3.5037879719000001E-10</v>
+      </c>
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>81</v>
+      </c>
+      <c r="B279" t="s">
+        <v>77</v>
+      </c>
+      <c r="C279" s="5">
+        <v>205</v>
+      </c>
+      <c r="D279" s="2">
+        <v>8.4462064138999997E-10</v>
+      </c>
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>82</v>
+      </c>
+      <c r="B280" t="s">
+        <v>79</v>
+      </c>
+      <c r="C280" s="5">
+        <v>204</v>
+      </c>
+      <c r="D280" s="2">
+        <v>1.6734024496999999E-10</v>
+      </c>
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>82</v>
+      </c>
+      <c r="B281" t="s">
+        <v>79</v>
+      </c>
+      <c r="C281" s="5">
+        <v>206</v>
+      </c>
+      <c r="D281" s="2">
+        <v>1.5973122367E-9</v>
+      </c>
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>82</v>
+      </c>
+      <c r="B282" t="s">
+        <v>79</v>
+      </c>
+      <c r="C282" s="5">
+        <v>207</v>
+      </c>
+      <c r="D282" s="2">
+        <v>1.7639784489E-9</v>
+      </c>
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>82</v>
+      </c>
+      <c r="B283" t="s">
+        <v>79</v>
+      </c>
+      <c r="C283" s="5">
+        <v>208</v>
+      </c>
+      <c r="D283" s="2">
+        <v>5.0526066137000004E-9</v>
+      </c>
+      <c r="F283" s="2"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>83</v>
+      </c>
+      <c r="B284" t="s">
+        <v>81</v>
+      </c>
+      <c r="C284" s="5">
+        <v>209</v>
+      </c>
+      <c r="D284" s="2">
+        <v>6.8708879942999995E-10</v>
+      </c>
+      <c r="F284" s="2"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>90</v>
+      </c>
+      <c r="B285" t="s">
+        <v>83</v>
+      </c>
+      <c r="C285" s="5">
+        <v>232</v>
+      </c>
+      <c r="D285" s="2">
+        <v>1.7879466988000001E-10</v>
+      </c>
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>92</v>
+      </c>
+      <c r="B286" t="s">
+        <v>85</v>
+      </c>
+      <c r="C286" s="5">
+        <v>235</v>
+      </c>
+      <c r="D286" s="2">
+        <v>3.5914261585000001E-13</v>
+      </c>
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>92</v>
+      </c>
+      <c r="B287" t="s">
+        <v>85</v>
+      </c>
+      <c r="C287" s="5">
+        <v>238</v>
+      </c>
+      <c r="D287" s="2">
+        <v>5.0151190667E-11</v>
+      </c>
+      <c r="F287" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
